--- a/examples/99_tower_gbf/15mw/40m/outputs_mono/monotow_iea15_output.xlsx
+++ b/examples/99_tower_gbf/15mw/40m/outputs_mono/monotow_iea15_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E762"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[2.77494833]</t>
+          <t>[2.76595638]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[8.7924816]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[8.9902061]</t>
+          <t>[8.7924816]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[[0.06191185 0.025      0.025      0.025      0.025     ]]</t>
+          <t>[[0.03602753 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.7924816 8.7924816 8.7924816 6.        6.       ]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -4627,10 +4627,10 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         20768.78630014
- 21373.19994564 23230.01032265 26477.60742298 31328.2414679
- 38112.97318345 47307.98900671 55106.41653762 64559.6469447
- 76048.53143189     0.             0.             0.
+          <t>[    0.             0.             0.         19874.51662202
+ 20453.3114903  22230.94019733 25341.6194516  29993.15704034
+ 36501.01726421 45324.09095892 52808.43295837 61881.38564214
+ 72907.36271781     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4881,9 +4881,9 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
- 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
- 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -5024,10 +5024,10 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         20768.78630014
- 21373.19994564 23230.01032265 26477.60742298 31328.2414679
- 38112.97318345 47307.98900671 55106.41653762 64559.6469447
- 76048.53143189     0.             0.             0.
+          <t>[    0.             0.             0.         19874.51662202
+ 20453.3114903  22230.94019733 25341.6194516  29993.15704034
+ 36501.01726421 45324.09095892 52808.43295837 61881.38564214
+ 72907.36271781     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5170,10 +5170,10 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -20768.78630014
- -21373.19994564 -23230.01032265 -26477.60742298 -31328.2414679
- -38112.97318345 -47307.98900671 -55106.41653762 -64559.6469447
- -76048.53143189      0.              0.              0.
+          <t>[     0.              0.              0.         -19874.51662202
+ -20453.3114903  -22230.94019733 -25341.6194516  -29993.15704034
+ -36501.01726421 -45324.09095892 -52808.43295837 -61881.38564214
+ -72907.36271781      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5247,26 +5247,26 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[[3.11914834e+10 1.86078671e+13 3.11914834e+10 1.86078671e+13
-  1.93154295e+10 6.78181160e+10]
- [2.80790624e+10 1.31617169e+13 2.80790624e+10 1.31617169e+13
-  1.76354295e+10 6.78181160e+10]
- [2.49666413e+10 8.91023330e+12 2.49666413e+10 8.91023330e+12
-  1.59554295e+10 6.78181160e+10]
- [2.18542203e+10 5.70408308e+12 2.18542203e+10 5.70408308e+12
-  1.42754295e+10 6.78181160e+10]
- [1.87417992e+10 3.39393286e+12 1.87417992e+10 3.39393286e+12
-  1.25954295e+10 6.78181160e+10]
- [1.56293782e+10 1.83044931e+12 1.56293782e+10 1.83044931e+12
-  1.09154295e+10 6.78181160e+10]
- [1.25169571e+10 8.64299090e+11 1.25169571e+10 8.64299090e+11
-  9.23542951e+09 6.78181160e+10]
- [9.40453605e+09 3.46148870e+11 9.40453605e+09 3.46148870e+11
-  7.55542951e+09 6.78181160e+10]
- [6.29211500e+09 1.26665317e+11 6.29211500e+09 1.26665317e+11
-  5.87542951e+09 6.78181160e+10]
- [3.17969395e+09 5.65150966e+10 3.17969395e+09 5.65150966e+10
-  4.19542951e+09 6.78181160e+10]]</t>
+          <t>[[3.11215514e+10 1.85864986e+13 3.11215514e+10 1.85864986e+13
+  1.92231581e+10 6.34411695e+10]
+ [2.80091303e+10 1.31423174e+13 2.80091303e+10 1.31423174e+13
+  1.75431581e+10 6.34411695e+10]
+ [2.48967093e+10 8.89280284e+12 2.48967093e+10 8.89280284e+12
+  1.58631581e+10 6.34411695e+10]
+ [2.17842882e+10 5.68862162e+12 2.17842882e+10 5.68862162e+12
+  1.41831581e+10 6.34411695e+10]
+ [1.86718672e+10 3.38044040e+12 1.86718672e+10 3.38044040e+12
+  1.25031581e+10 6.34411695e+10]
+ [1.55594461e+10 1.81892585e+12 1.55594461e+10 1.81892585e+12
+  1.08231581e+10 6.34411695e+10]
+ [1.24470251e+10 8.54744632e+11 1.24470251e+10 8.54744632e+11
+  9.14315808e+09 6.34411695e+10]
+ [9.33460402e+09 3.38563413e+11 9.33460402e+09 3.38563413e+11
+  7.46315808e+09 6.34411695e+10]
+ [6.22218296e+09 1.21048860e+11 6.22218296e+09 1.21048860e+11
+  5.78315808e+09 6.34411695e+10]
+ [3.10976191e+09 5.28676413e+10 3.10976191e+09 5.28676413e+10
+  4.10315808e+09 6.34411695e+10]]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5330,9 +5330,9 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168]</t>
+          <t>[2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -5355,9 +5355,9 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759]</t>
+          <t>[1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -5380,9 +5380,9 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759]</t>
+          <t>[1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -5405,9 +5405,9 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286]</t>
+          <t>[20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -5430,9 +5430,9 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286]</t>
+          <t>[20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -5455,9 +5455,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572]</t>
+          <t>[41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -5553,8 +5553,8 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
- 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075
+ 0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5701,8 +5701,8 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.8253358  0.8253358  0.8253358  0.58977466 0.58977466 0.58977466
+ 0.55848487 0.49590528 0.43332569 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5725,8 +5725,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5749,8 +5749,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5773,8 +5773,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.92494466 7.92494466 7.92494466 5.67339882 5.67339882 5.67339882
+ 4.81747503 3.37273415 2.25024712 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5797,8 +5797,8 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.92494466 7.92494466 7.92494466 5.67339882 5.67339882 5.67339882
+ 4.81747503 3.37273415 2.25024712 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5821,8 +5821,8 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[15.84988933 15.84988933 15.84988933 11.34679764 11.34679764 11.34679764
+  9.63495007  6.74546829  4.50049423  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5916,9 +5916,8 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 7.8616544 6.9308272 6.        6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -5941,8 +5940,8 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.02801377 0.02801377 0.02801377 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -6047,9 +6046,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[[  3787067.1877171 ]
- [    22429.54651138]
- [-17478196.27298349]]</t>
+          <t>[[  3787067.18771867]
+ [    22429.54651139]
+ [-15760933.80852036]]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6072,8 +6071,8 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[[-4.79647751e+06]
- [ 5.52357095e+08]
+          <t>[[-4.80177715e+06]
+ [ 5.52900142e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -6097,7 +6096,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[1010297.57124604 1010297.57124604 2020595.14249208       0.
+          <t>[ 966346.65787989  966346.65787989 1932693.31575978       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6190,7 +6189,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[1821746.09322548]</t>
+          <t>[1646295.18193519]</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -6213,7 +6212,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[-3.83293457e+00 -5.18511801e-02  1.16940763e+02]</t>
+          <t>[-4.24142259e+00 -5.73771252e-02  1.23882336e+02]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -6236,7 +6235,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[3.05374604e+10 3.04317239e+10 2.65878781e+08 8.52611923e+02
+          <t>[2.97253615e+10 2.96196250e+10 2.65186484e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -6345,16 +6344,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-20768.78630014]
- [-21373.19994564]
- [-23230.01032265]
- [-26477.60742298]
- [-31328.2414679 ]
- [-38112.97318345]
- [-47307.98900671]
- [-55106.41653762]
- [-64559.6469447 ]
- [-76048.53143189]
+ [-19874.51662202]
+ [-20453.3114903 ]
+ [-22230.94019733]
+ [-25341.6194516 ]
+ [-29993.15704034]
+ [-36501.01726421]
+ [-45324.09095892]
+ [-52808.43295837]
+ [-61881.38564214]
+ [-72907.36271781]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6453,15 +6452,15 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-209.15762791]
+ [-245.39889896]
+ [-270.23834247]
+ [-289.5482784 ]
+ [-311.61185297]
+ [-329.62055319]
+ [-344.95445637]
+ [-313.4688413 ]
+ [-277.94402504]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -6587,24 +6586,24 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[[-33845345.57814118]
- [-31437110.28398506]
- [-28874666.74158047]
- [-27967620.23621938]
- [-27054482.19535065]
- [-26128710.74950017]
- [-25182896.17434377]
- [-24208284.06650789]
- [-23194122.098282  ]
- [-22489974.93170974]
- [-21757362.53273644]
- [-20990195.62801227]
- [-20329552.15456163]
- [-19794388.75586013]
- [-19259225.35715852]
- [-18991643.65780798]
- [-18724061.95845683]
- [-18456480.25910623]]</t>
+          <t>[[-32697059.03468741]
+ [-30175446.86343521]
+ [-27506266.39537468]
+ [-26565917.63419389]
+ [-25619736.72909717]
+ [-24661457.26069708]
+ [-23683966.31129895]
+ [-22678855.85183236]
+ [-21635801.32351528]
+ [-20913524.40190484]
+ [-20163927.94084533]
+ [-19381168.24628064]
+ [-18700512.84477184]
+ [-18140154.58449364]
+ [-17579796.32421508]
+ [-17299617.19407608]
+ [-17019438.06393687]
+ [-16739258.9337976 ]]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6627,24 +6626,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[[ -1312346.6454299 ]
- [ -9581481.26101986]
- [-24233317.16684327]
- [  3788138.92831149]
- [  3788547.84499232]
- [  3788963.95096852]
- [  3789397.17294348]
- [  3789859.59152717]
- [  3790366.85247183]
- [  3789586.61817989]
- [  3789868.90766635]
- [  3790185.40114281]
- [  3790108.90595391]
- [  3789506.96614786]
- [  3789629.39876533]
- [  3788393.31780276]
- [  3788422.86327415]
- [  3788452.05433818]]</t>
+          <t>[[ -1382497.28165112]
+ [ -9872387.79252962]
+ [-24411672.5596185 ]
+ [  3788183.72518338]
+ [  3788606.32648521]
+ [  3789035.01246107]
+ [  3789479.31235714]
+ [  3789950.83810686]
+ [  3790464.59269039]
+ [  3789653.4717076 ]
+ [  3789935.77172221]
+ [  3790250.6528842 ]
+ [  3790188.42008746]
+ [  3789622.09480864]
+ [  3789750.11392619]
+ [  3788455.73223521]
+ [  3788486.62886635]
+ [  3788517.15601904]]</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -6667,24 +6666,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[[ -10461.46086178]
- [ -76602.58112886]
- [-196549.7254044 ]
- [  22438.05148973]
- [  22441.34515523]
- [  22444.71820258]
- [  22448.25185962]
- [  22452.04588509]
- [  22456.23036975]
- [  22449.98309759]
- [  22452.32953657]
- [  22454.96708559]
- [  22454.40672315]
- [  22449.53855255]
- [  22450.59680303]
- [  22440.46314179]
- [  22440.72129238]
- [  22440.97730367]]</t>
+          <t>[[ -11018.45387144]
+ [ -78912.32640418]
+ [-197996.29860123]
+ [  22438.40683563]
+ [  22441.81040376]
+ [  22445.28526579]
+ [  22448.90938414]
+ [  22452.77862991]
+ [  22457.01773721]
+ [  22450.52301192]
+ [  22452.87059208]
+ [  22455.49604598]
+ [  22455.05364882]
+ [  22450.47951755]
+ [  22451.5860123 ]
+ [  22440.97561608]
+ [  22441.2455633 ]
+ [  22441.51328379]]</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -6707,24 +6706,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[[  -68916.04704796]
- [ -994586.66387944]
- [-5210684.4724758 ]
- [-5937796.22395837]
- [-5822033.16149199]
- [-5705444.87964995]
- [-5588115.82731745]
- [-5470131.63716487]
- [-5351580.37036697]
- [-5272310.13605997]
- [-5192862.04001098]
- [-5113265.81980161]
- [-5033554.27069383]
- [-4953726.02530048]
- [-4873770.20736212]
- [-4833768.28834138]
- [-4793741.93910272]
- [-4753693.12439707]]</t>
+          <t>[[  -72319.08235525]
+ [-1015871.37862481]
+ [-5249189.0471606 ]
+ [-5927878.67183817]
+ [-5812286.16164492]
+ [-5695924.65916833]
+ [-5578879.63923207]
+ [-5461237.55731531]
+ [-5343087.04466388]
+ [-5264117.61667689]
+ [-5184996.52722443]
+ [-5105753.35461736]
+ [-5026420.64558033]
+ [-4946998.16227295]
+ [-4867476.52338713]
+ [-4827703.28732627]
+ [-4787912.85568536]
+ [-4748107.21207826]]</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -6747,24 +6746,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[8.69133441e+06]
- [1.25351417e+08]
- [6.50508028e+08]
- [7.37028629e+08]
- [7.17639591e+08]
- [6.98149097e+08]
- [6.78568362e+08]
- [6.58908661e+08]
- [6.39181478e+08]
- [6.26002536e+08]
- [6.12803098e+08]
- [5.99586938e+08]
- [5.86358175e+08]
- [5.73116732e+08]
- [5.59861374e+08]
- [5.53231405e+08]
- [5.46598895e+08]
- [5.39964096e+08]]</t>
+          <t>[[9.12158494e+06]
+ [1.28065253e+08]
+ [6.55417965e+08]
+ [7.35879368e+08]
+ [7.16511706e+08]
+ [6.97049520e+08]
+ [6.77504105e+08]
+ [6.57886791e+08]
+ [6.38209082e+08]
+ [6.25067164e+08]
+ [6.11907879e+08]
+ [5.98734962e+08]
+ [5.85552487e+08]
+ [5.72360495e+08]
+ [5.59157918e+08]
+ [5.52555696e+08]
+ [5.45951773e+08]
+ [5.39346401e+08]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6787,24 +6786,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[1269992.78700886]
- [2930187.44289247]
- [5490698.03965557]
- [9738237.80122823]
- [9738184.72462117]
- [9738131.29214705]
- [9738077.12102502]
- [9738021.77771025]
- [9737964.7499971 ]
- [9737905.40880263]
- [9737864.20778752]
- [9737821.34158664]
- [9737776.45395654]
- [9737737.79944054]
- [9737706.48703929]
- [9737675.1748394 ]
- [9737659.51881495]
- [9737643.86284086]]</t>
+          <t>[[1317132.02297614]
+ [3012807.83635415]
+ [5574390.31942892]
+ [9738085.36088974]
+ [9738032.81126507]
+ [9737979.93629441]
+ [9737926.38581087]
+ [9737871.76235991]
+ [9737815.59613424]
+ [9737757.31025439]
+ [9737716.94983386]
+ [9737675.06316694]
+ [9737631.32375775]
+ [9737593.29009902]
+ [9737561.97862622]
+ [9737530.66735482]
+ [9737515.01179458]
+ [9737499.35628468]]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -6856,12 +6855,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
- 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
- 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 7.8616544 6.9308272 6.
+ 6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -6884,11 +6882,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02801377 0.02801377 0.02801377 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -7036,11 +7034,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 0.8253358  0.8253358  0.8253358  0.58977466 0.58977466 0.58977466
+ 0.55848487 0.49590528 0.43332569 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -7063,11 +7061,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -7090,11 +7088,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -7117,11 +7115,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
-  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+  7.92494466  7.92494466  7.92494466  5.67339882  5.67339882  5.67339882
+  4.81747503  3.37273415  2.25024712  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -7144,11 +7142,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
-  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+  7.92494466  7.92494466  7.92494466  5.67339882  5.67339882  5.67339882
+  4.81747503  3.37273415  2.25024712  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7171,11 +7169,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 15.84988933 15.84988933 15.84988933 11.34679764 11.34679764 11.34679764
+  9.63495007  6.74546829  4.50049423  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7198,36 +7196,36 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-3.38453456e+07]
- [-3.14371103e+07]
- [-2.88746667e+07]
- [-2.79676202e+07]
- [-2.70544822e+07]
- [-2.61287107e+07]
- [-2.51828962e+07]
- [-2.42082841e+07]
- [-2.31941221e+07]
- [-2.24899749e+07]
- [-2.17573625e+07]
- [-2.09901956e+07]
- [-2.03295522e+07]
- [-1.97943888e+07]
- [-1.92592254e+07]
- [-1.89916437e+07]
- [-1.87240620e+07]
- [-1.84564803e+07]
- [-1.63379177e+07]
- [-1.51985972e+07]
- [-1.40589184e+07]
- [-1.31179607e+07]
- [-1.21766573e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [-3.62633727e-08]]</t>
+          <t>[[-3.26970590e+07]
+ [-3.01754469e+07]
+ [-2.75062664e+07]
+ [-2.65659176e+07]
+ [-2.56197367e+07]
+ [-2.46614573e+07]
+ [-2.36839663e+07]
+ [-2.26788559e+07]
+ [-2.16358013e+07]
+ [-2.09135244e+07]
+ [-2.01639279e+07]
+ [-1.93811682e+07]
+ [-1.87005128e+07]
+ [-1.81401546e+07]
+ [-1.75797963e+07]
+ [-1.72996172e+07]
+ [-1.70194381e+07]
+ [-1.67392589e+07]
+ [-1.49500873e+07]
+ [-1.41399954e+07]
+ [-1.33295170e+07]
+ [-1.25004188e+07]
+ [-1.16709465e+07]
+ [-1.08411119e+07]
+ [-1.03692612e+07]
+ [-9.94996009e+06]
+ [-9.58348446e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7250,36 +7248,36 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[-1.31234665e+06]
- [-9.58148126e+06]
- [-2.42333172e+07]
- [ 3.78813893e+06]
- [ 3.78854784e+06]
- [ 3.78896395e+06]
- [ 3.78939717e+06]
- [ 3.78985959e+06]
- [ 3.79036685e+06]
- [ 3.78958662e+06]
- [ 3.78986891e+06]
- [ 3.79018540e+06]
- [ 3.79010891e+06]
- [ 3.78950697e+06]
- [ 3.78962940e+06]
- [ 3.78839332e+06]
- [ 3.78842286e+06]
- [ 3.78845205e+06]
- [ 3.79407040e+06]
- [ 3.79601676e+06]
- [ 3.79775129e+06]
- [ 3.79802965e+06]
- [ 3.80053395e+06]
- [ 3.80242652e+06]
- [ 3.79655180e+06]
- [ 3.79610005e+06]
- [ 3.79549900e+06]
- [ 3.79245399e+06]
- [ 3.79242779e+06]
- [ 5.29999046e+03]]</t>
+          <t>[[-1.38249728e+06]
+ [-9.87238779e+06]
+ [-2.44116726e+07]
+ [ 3.78818373e+06]
+ [ 3.78860633e+06]
+ [ 3.78903501e+06]
+ [ 3.78947931e+06]
+ [ 3.78995084e+06]
+ [ 3.79046459e+06]
+ [ 3.78965347e+06]
+ [ 3.78993577e+06]
+ [ 3.79025065e+06]
+ [ 3.79018842e+06]
+ [ 3.78962209e+06]
+ [ 3.78975011e+06]
+ [ 3.78845573e+06]
+ [ 3.78848663e+06]
+ [ 3.78851716e+06]
+ [ 3.79217229e+06]
+ [ 3.79378064e+06]
+ [ 3.79521231e+06]
+ [ 3.79729393e+06]
+ [ 3.79936567e+06]
+ [ 3.80093200e+06]
+ [ 3.79548927e+06]
+ [ 3.79487280e+06]
+ [ 3.79412869e+06]
+ [ 3.79149443e+06]
+ [ 3.79146704e+06]
+ [ 4.33914323e+03]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7302,36 +7300,36 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[-1.04614609e+04]
- [-7.66025811e+04]
- [-1.96549725e+05]
- [ 2.24380515e+04]
- [ 2.24413452e+04]
- [ 2.24447182e+04]
- [ 2.24482519e+04]
- [ 2.24520459e+04]
- [ 2.24562304e+04]
- [ 2.24499831e+04]
- [ 2.24523295e+04]
- [ 2.24549671e+04]
- [ 2.24544067e+04]
- [ 2.24495386e+04]
- [ 2.24505968e+04]
- [ 2.24404631e+04]
- [ 2.24407213e+04]
- [ 2.24409773e+04]
- [ 2.24880010e+04]
- [ 2.25056889e+04]
- [ 2.25220726e+04]
- [ 2.25272890e+04]
- [ 2.25543383e+04]
- [ 2.25775891e+04]
- [ 2.25242776e+04]
- [ 2.25230977e+04]
- [ 2.25214831e+04]
- [ 2.24916493e+04]
- [ 2.24946811e+04]
- [ 6.63527253e+01]]</t>
+          <t>[[-1.10184539e+04]
+ [-7.89123264e+04]
+ [-1.97996299e+05]
+ [ 2.24384068e+04]
+ [ 2.24418104e+04]
+ [ 2.24452853e+04]
+ [ 2.24489094e+04]
+ [ 2.24527786e+04]
+ [ 2.24570177e+04]
+ [ 2.24505230e+04]
+ [ 2.24528706e+04]
+ [ 2.24554960e+04]
+ [ 2.24550536e+04]
+ [ 2.24504795e+04]
+ [ 2.24515860e+04]
+ [ 2.24409756e+04]
+ [ 2.24412456e+04]
+ [ 2.24415133e+04]
+ [ 2.24721869e+04]
+ [ 2.24868001e+04]
+ [ 2.25003217e+04]
+ [ 2.25208232e+04]
+ [ 2.25431990e+04]
+ [ 2.25624408e+04]
+ [ 2.25130523e+04]
+ [ 2.25098494e+04]
+ [ 2.25064603e+04]
+ [ 2.24810280e+04]
+ [ 2.24840470e+04]
+ [ 5.57175011e+01]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7354,36 +7352,36 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[-6.89160470e+04]
- [-9.94586664e+05]
- [-5.21068447e+06]
- [-5.93779622e+06]
- [-5.82203316e+06]
- [-5.70544488e+06]
- [-5.58811583e+06]
- [-5.47013164e+06]
- [-5.35158037e+06]
- [-5.27231014e+06]
- [-5.19286204e+06]
- [-5.11326582e+06]
- [-5.03355427e+06]
- [-4.95372603e+06]
- [-4.87377021e+06]
- [-4.83376829e+06]
- [-4.79374194e+06]
- [-4.75369312e+06]
- [-4.44395023e+06]
- [-4.12922770e+06]
- [-3.81087341e+06]
- [-3.34784944e+06]
- [-2.87460926e+06]
- [-2.39496495e+06]
- [-2.10604383e+06]
- [-1.81589507e+06]
- [-1.52414415e+06]
- [-1.32892870e+06]
- [-1.13312611e+06]
- [-6.54608613e-04]]</t>
+          <t>[[-7.23190824e+04]
+ [-1.01587138e+06]
+ [-5.24918905e+06]
+ [-5.92787867e+06]
+ [-5.81228616e+06]
+ [-5.69592466e+06]
+ [-5.57887964e+06]
+ [-5.46123756e+06]
+ [-5.34308704e+06]
+ [-5.26411762e+06]
+ [-5.18499653e+06]
+ [-5.10575335e+06]
+ [-5.02642065e+06]
+ [-4.94699816e+06]
+ [-4.86747652e+06]
+ [-4.82770329e+06]
+ [-4.78791286e+06]
+ [-4.74810721e+06]
+ [-4.44006159e+06]
+ [-4.12624091e+06]
+ [-3.80786442e+06]
+ [-3.34457377e+06]
+ [-2.87229296e+06]
+ [-2.39430361e+06]
+ [-2.10640099e+06]
+ [-1.81705505e+06]
+ [-1.52546954e+06]
+ [-1.32976616e+06]
+ [-1.13297069e+06]
+ [-5.49639505e-04]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7406,36 +7404,36 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 8.69133441e+06]
- [ 1.25351417e+08]
- [ 6.50508028e+08]
- [ 7.37028629e+08]
- [ 7.17639591e+08]
- [ 6.98149097e+08]
- [ 6.78568362e+08]
- [ 6.58908661e+08]
- [ 6.39181478e+08]
- [ 6.26002536e+08]
- [ 6.12803098e+08]
- [ 5.99586938e+08]
- [ 5.86358175e+08]
- [ 5.73116732e+08]
- [ 5.59861374e+08]
- [ 5.53231405e+08]
- [ 5.46598895e+08]
- [ 5.39964096e+08]
- [ 4.88791272e+08]
- [ 4.37085302e+08]
- [ 3.85017652e+08]
- [ 3.09861605e+08]
- [ 2.33829502e+08]
- [ 1.57397498e+08]
- [ 1.11577363e+08]
- [ 6.57917205e+07]
- [ 2.00737807e+07]
- [-1.03143277e+07]
- [-4.06119505e+07]
- [ 5.22819658e-02]]</t>
+          <t>[[ 9.12158494e+06]
+ [ 1.28065253e+08]
+ [ 6.55417965e+08]
+ [ 7.35879368e+08]
+ [ 7.16511706e+08]
+ [ 6.97049520e+08]
+ [ 6.77504105e+08]
+ [ 6.57886791e+08]
+ [ 6.38209082e+08]
+ [ 6.25067164e+08]
+ [ 6.11907879e+08]
+ [ 5.98734962e+08]
+ [ 5.85552487e+08]
+ [ 5.72360495e+08]
+ [ 5.59157918e+08]
+ [ 5.52555696e+08]
+ [ 5.45951773e+08]
+ [ 5.39346401e+08]
+ [ 4.88378674e+08]
+ [ 4.36786251e+08]
+ [ 3.84728262e+08]
+ [ 3.09548439e+08]
+ [ 2.33601153e+08]
+ [ 1.57301140e+08]
+ [ 1.11551951e+08]
+ [ 6.58156653e+07]
+ [ 2.01084535e+07]
+ [-1.02983354e+07]
+ [-4.06259918e+07]
+ [ 4.28128616e-02]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7458,35 +7456,35 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[[1269992.78700886]
- [2930187.44289247]
- [5490698.03965557]
- [9738237.80122823]
- [9738184.72462117]
- [9738131.29214705]
- [9738077.12102502]
- [9738021.77771025]
- [9737964.7499971 ]
- [9737905.40880263]
- [9737864.20778752]
- [9737821.34158664]
- [9737776.45395654]
- [9737737.79944054]
- [9737706.48703929]
- [9737675.1748394 ]
- [9737659.51881495]
- [9737643.86284086]
- [9738394.94205146]
- [9738274.68808106]
- [9738154.29009219]
- [9739124.746521  ]
- [9738952.27408506]
- [9738779.74439801]
- [9738696.98055442]
- [9738788.87033338]
- [9738911.07638571]
- [9738933.45190322]
- [9738864.35339329]
+          <t>[[1317132.02297614]
+ [3012807.83635415]
+ [5574390.31942892]
+ [9738085.36088974]
+ [9738032.81126507]
+ [9737979.93629441]
+ [9737926.38581087]
+ [9737871.76235991]
+ [9737815.59613424]
+ [9737757.31025439]
+ [9737716.94983386]
+ [9737675.06316694]
+ [9737631.32375775]
+ [9737593.29009902]
+ [9737561.97862622]
+ [9737530.66735482]
+ [9737515.01179458]
+ [9737499.35628468]
+ [9738893.35770923]
+ [9738773.01890058]
+ [9738652.45189981]
+ [9739324.2320256 ]
+ [9739151.53233168]
+ [9738978.76084224]
+ [9738932.42805958]
+ [9739116.46162073]
+ [9739368.55907656]
+ [9739476.12157143]
+ [9739406.89068819]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8092,7 +8090,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[2407316.65022517]</t>
+          <t>[2058399.79319718]</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8115,7 +8113,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[870411.60980585]</t>
+          <t>[694960.69851556]</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8138,7 +8136,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[3352316.65022517]</t>
+          <t>[3003399.79319718]</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8161,7 +8159,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[223.48777668]</t>
+          <t>[200.22665288]</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8184,7 +8182,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[870411.60980585]</t>
+          <t>[694960.69851556]</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8253,7 +8251,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[2407316.65022517]</t>
+          <t>[2058399.79319718]</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8276,7 +8274,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[2407316.65022517]</t>
+          <t>[2058399.79319718]</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8299,8 +8297,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[209.15762791 245.39889896 270.23834247 289.5482784  311.61185297
+ 329.62055319 344.95445637 313.4688413  277.94402504 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8516,9 +8514,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 7.8616544 6.9308272 6.        6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -8612,8 +8609,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[209.15762791 245.39889896 270.23834247 289.5482784  311.61185297
+ 329.62055319 344.95445637 313.4688413  277.94402504 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8754,8 +8751,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-209.15762791 -245.39889896 -270.23834247 -289.5482784  -311.61185297
+ -329.62055319 -344.95445637 -313.4688413  -277.94402504 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -8829,8 +8826,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.02801377 0.02801377 0.02801377 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8971,8 +8968,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.8253358  0.8253358  0.8253358  0.58977466 0.58977466 0.58977466
+ 0.55848487 0.49590528 0.43332569 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -8995,8 +8992,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -9019,8 +9016,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -9043,8 +9040,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.92494466 7.92494466 7.92494466 5.67339882 5.67339882 5.67339882
+ 4.81747503 3.37273415 2.25024712 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -9067,8 +9064,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[9.19769616 9.19769616 9.19769616 5.32819383 5.32819383 5.32819383
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[7.92494466 7.92494466 7.92494466 5.67339882 5.67339882 5.67339882
+ 4.81747503 3.37273415 2.25024712 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9091,8 +9088,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[15.84988933 15.84988933 15.84988933 11.34679764 11.34679764 11.34679764
+  9.63495007  6.74546829  4.50049423  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -9210,17 +9207,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[[-16338875.74247312]
- [-15199196.96343794]
- [-14059260.05505751]
- [-13117956.67907293]
- [-12176317.89202567]
- [-11234399.61479938]
- [-10692773.7229141 ]
- [-10198366.9488287 ]
- [ -9751211.14539439]
- [ -9468851.22077094]
- [ -9186467.52414185]
+          <t>[[-14950841.93983752]
+ [-14140363.46704121]
+ [-13329605.55494078]
+ [-12500133.28291536]
+ [-11670298.67747148]
+ [-10840162.58833193]
+ [-10368399.54746523]
+ [ -9949461.94649021]
+ [ -9583397.55879915]
+ [ -9356975.49637408]
+ [ -9130529.66194339]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -9244,18 +9241,18 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[[3788171.04295212]
- [3790166.1255112 ]
- [3791965.62587043]
- [3793362.28716378]
- [3796038.3629717 ]
- [3798120.31221607]
- [3794172.5314025 ]
- [3794012.98180679]
- [3793722.59677414]
- [3791408.18942941]
- [3791451.99170464]
- [3791427.11339156]]</t>
+          <t>[[3787986.2494587 ]
+ [3789634.88344365]
+ [3791122.17148771]
+ [3793209.43167373]
+ [3795426.14009632]
+ [3797150.95376902]
+ [3793420.50763096]
+ [3793107.18703039]
+ [3792687.85810046]
+ [3790677.28337482]
+ [3790721.38782834]
+ [3790696.68045183]]</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -9278,18 +9275,18 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[[22439.10418231]
- [22456.95848677]
- [22473.64372441]
- [22487.87522852]
- [22515.87200513]
- [22540.21978501]
- [22503.36298397]
- [22504.5072342 ]
- [22505.35643806]
- [22481.94941993]
- [22485.44306334]
- [22488.496556  ]]</t>
+          <t>[[22437.48546758]
+ [22452.24078606]
+ [22466.03208205]
+ [22486.28044533]
+ [22509.47246684]
+ [22529.64519938]
+ [22494.88963045]
+ [22494.13739405]
+ [22493.36102203]
+ [22473.40106259]
+ [22476.90148809]
+ [22479.95913015]]</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -9312,18 +9309,18 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[[-4505950.27903549]
- [-4209101.72476387]
- [-3907266.95222108]
- [-3465768.07958003]
- [-3012128.38406668]
- [-2550155.48444946]
- [-2270744.97491878]
- [-1989388.21408131]
- [-1705670.84132246]
- [-1515335.98048027]
- [-1324062.48550469]
- [-1132156.51751559]]</t>
+          <t>[[-4511045.87380649]
+ [-4213541.30621938]
+ [-3910469.43293521]
+ [-3467482.60176382]
+ [-3013791.63069519]
+ [-2552674.95356513]
+ [-2273920.76714761]
+ [-1993062.99062848]
+ [-1709231.12440164]
+ [-1518218.39524329]
+ [-1325740.71921184]
+ [-1132156.51854328]]</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -9346,18 +9343,18 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[[ 5.03502626e+08]
- [ 4.53942609e+08]
- [ 4.03848478e+08]
- [ 3.31241375e+08]
- [ 2.57499782e+08]
- [ 1.83103853e+08]
- [ 1.38365525e+08]
- [ 9.35672394e+07]
- [ 4.87347324e+07]
- [ 1.88730950e+07]
- [-1.09461851e+07]
- [-4.06893978e+07]]</t>
+          <t>[[ 5.04021029e+08]
+ [ 4.54385863e+08]
+ [ 4.04153395e+08]
+ [ 3.31374294e+08]
+ [ 2.57598194e+08]
+ [ 1.83243133e+08]
+ [ 1.38535866e+08]
+ [ 9.37539426e+07]
+ [ 4.89004720e+07]
+ [ 1.89967601e+07]
+ [-1.08804040e+07]
+ [-4.06893977e+07]]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9380,18 +9377,18 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[[9738395.19029326]
- [9738274.78932476]
- [9738154.35347586]
- [9739124.80914926]
- [9738952.27334915]
- [9738779.68218638]
- [9738696.8621703 ]
- [9738788.74933498]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304613]]</t>
+          <t>[[9738893.70120589]
+ [9738773.13121702]
+ [9738652.50667541]
+ [9739324.25048188]
+ [9739151.47286442]
+ [9738978.62590768]
+ [9738932.21925378]
+ [9739116.24816308]
+ [9739368.41784824]
+ [9739476.09501583]
+ [9739406.90494467]
+ [9739337.70859248]]</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -9554,15 +9551,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-209.15762791]
+ [-245.39889896]
+ [-270.23834247]
+ [-289.5482784 ]
+ [-311.61185297]
+ [-329.62055319]
+ [-344.95445637]
+ [-313.4688413 ]
+ [-277.94402504]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -9589,7 +9586,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[870411.60980585]</t>
+          <t>[694960.69851556]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9612,7 +9609,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[61.61218627]</t>
+          <t>[64.08776358]</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -9635,7 +9632,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[4.89563408e+09 4.89563408e+09 1.26912765e+07 0.00000000e+00
+          <t>[4.08353513e+09 4.08353513e+09 1.19989794e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -9659,7 +9656,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -9682,7 +9679,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -9747,7 +9744,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -9770,7 +9767,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -10008,7 +10005,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1637197.91099903]</t>
+          <t>[1714275.2526316]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -10031,7 +10028,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[4025651.55909389]</t>
+          <t>[4186385.64604659]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -10077,7 +10074,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[5.47361137e+09 5.47361137e+09 3.25699965e+07 0.00000000e+00
+          <t>[5.73053648e+09 5.73053648e+09 3.25712771e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10101,7 +10098,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[870411.60980585]</t>
+          <t>[694960.69851556]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10124,7 +10121,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[2407316.65022517]</t>
+          <t>[2058399.79319718]</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -10216,7 +10213,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[8.9902061]</t>
+          <t>[8.7924816]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10239,7 +10236,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.7924816 8.7924816 8.7924816 6.        6.       ]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10262,7 +10259,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[0.04345593 0.025      0.025      0.025     ]</t>
+          <t>[0.02801377 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10327,7 +10324,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[8.7924816 8.7924816 8.7924816 6.        6.       ]</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -10350,7 +10347,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[0.04345593 0.025      0.025      0.025     ]</t>
+          <t>[0.02801377 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -10645,10 +10642,10 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         20768.78630014
- 21373.19994564 23230.01032265 26477.60742298 31328.2414679
- 38112.97318345 47307.98900671 55106.41653762 64559.6469447
- 76048.53143189     0.             0.             0.
+          <t>[    0.             0.             0.         19874.51662202
+ 20453.3114903  22230.94019733 25341.6194516  29993.15704034
+ 36501.01726421 45324.09095892 52808.43295837 61881.38564214
+ 72907.36271781     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10899,10 +10896,10 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         20768.78630014
- 21373.19994564 23230.01032265 26477.60742298 31328.2414679
- 38112.97318345 47307.98900671 55106.41653762 64559.6469447
- 76048.53143189     0.             0.             0.
+          <t>[    0.             0.             0.         19874.51662202
+ 20453.3114903  22230.94019733 25341.6194516  29993.15704034
+ 36501.01726421 45324.09095892 52808.43295837 61881.38564214
+ 72907.36271781     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11284,10 +11281,10 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -20768.78630014
- -21373.19994564 -23230.01032265 -26477.60742298 -31328.2414679
- -38112.97318345 -47307.98900671 -55106.41653762 -64559.6469447
- -76048.53143189      0.              0.              0.
+          <t>[     0.              0.              0.         -19874.51662202
+ -20453.3114903  -22230.94019733 -25341.6194516  -29993.15704034
+ -36501.01726421 -45324.09095892 -52808.43295837 -61881.38564214
+ -72907.36271781      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11388,7 +11385,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[0.13050974]</t>
+          <t>[0.13052899]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11411,7 +11408,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[0.13       0.13050974 0.67783875 0.76020267 0.81617411 1.47266877]</t>
+          <t>[0.13       0.13052899 0.65449041 0.76670702 0.83784893 1.47629869]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11434,7 +11431,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[0.13050974 0.81617411 1.57739745]</t>
+          <t>[0.13052899 0.83784893 1.5608412 ]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11457,7 +11454,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[0.13       0.76020267 1.47266877]</t>
+          <t>[0.13       0.76670702 1.47629869]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11480,7 +11477,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[3.88390471 0.         0.        ]</t>
+          <t>[3.72813739 0.         0.        ]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11499,9 +11496,12 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[[  0.64048867   0.76034033  -0.94737185   1.28987706  -0.74333421]
- [ -3.98286337  -2.41003374  17.53136599 -14.46507963   4.32661075]
- [ -7.44964519   0.7764997   50.76639525 -57.97318894  14.87993919]]</t>
+          <t>[[ 5.81415640e-01  7.74170948e-01 -2.39063752e-01  7.41982852e-03
+  -1.23942664e-01]
+ [-3.94859713e+00 -2.29356813e+00  1.78181001e+01 -1.71560563e+01
+   6.58012149e+00]
+ [-6.78593626e+00  3.67114691e-01  4.28003416e+01 -4.60316028e+01
+   1.06500829e+01]]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11520,9 +11520,12 @@
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[[  0.63749259   0.75763312  -0.93760984   1.27962564  -0.7371415 ]
- [ -3.98685101  -2.56069295  17.03343832 -14.18291963   4.69702528]
- [ -6.67595767  -0.07462821  42.93186204 -45.7952655   10.61398934]]</t>
+          <t>[[ 5.78393117e-01  7.71526812e-01 -2.28371092e-01 -6.27157791e-03
+  -1.15277260e-01]
+ [-3.96762711e+00 -2.47318014e+00  1.74650939e+01 -1.73822563e+01
+   7.35796966e+00]
+ [-6.23261355e+00 -2.33881912e-01  3.75896963e+01 -3.84707041e+01
+   8.34750326e+00]]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11541,7 +11544,7 @@
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[[ -0.74066936   0.62870651  10.67757746 -15.20113699   5.63552239]
+          <t>[[ -0.57464114   1.27493913   9.75549906 -16.72627728   7.27048023]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -11562,12 +11565,9 @@
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>[[ 7.95977353e-01  1.46669479e-01  1.30832441e-01 -7.02661161e-02
-  -3.21315686e-03]
- [ 5.58868399e+00  6.51776863e-01 -1.03615926e+01  6.79493772e+00
-  -1.67380600e+00]
- [-1.48885866e+00  1.93596282e-01  7.04943384e+00 -6.20398985e+00
-   1.44981839e+00]]</t>
+          <t>[[ 0.75396859  0.15832306  0.36760413 -0.38334939  0.10345361]
+ [ 4.5457828   0.46907708 -8.38452127  6.10439339 -1.734732  ]
+ [-1.81248276  0.16805527  7.64184615 -6.45205923  1.45464057]]</t>
         </is>
       </c>
       <c r="E450" t="inlineStr"/>
@@ -11586,12 +11586,9 @@
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>[[ 7.94425879e-01  1.46472727e-01  1.33734915e-01 -7.22323664e-02
-  -2.40115457e-03]
- [ 4.37326401e+00  5.39151444e-01 -7.54863790e+00  4.91013811e+00
-  -1.27391567e+00]
- [-1.88431138e+00  1.34705727e-01  7.86494570e+00 -6.59748026e+00
-   1.48214022e+00]]</t>
+          <t>[[ 0.75245823  0.15822105  0.37107069 -0.3865546   0.10480464]
+ [ 3.57017195  0.39214527 -6.08549729  4.48958284 -1.36640277]
+ [-2.26195113  0.11678885  8.62816099 -7.03239933  1.54940062]]</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -11610,7 +11607,7 @@
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[[-0.06007452  0.1909188   3.32341751 -3.41107732  0.95681553]
+          <t>[[ 0.13376607  0.29891987  3.00162471 -3.53359577  1.09928512]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -11635,37 +11632,37 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>[[4.20743336e-05]
- [3.78387320e-04]
- [1.17066964e-03]
- [8.81281963e-03]
- [2.06216708e-02]
- [3.68444718e-02]
- [5.73650253e-02]
- [8.20665272e-02]
- [1.10831633e-01]
- [1.43542522e-01]
- [1.67483469e-01]
- [1.93090444e-01]
- [2.20328284e-01]
- [2.49161779e-01]
- [2.79555727e-01]
- [3.11474907e-01]
- [3.27995407e-01]
- [3.44883975e-01]
- [3.62136198e-01]
- [5.19559812e-01]
- [7.20436656e-01]
- [9.60169412e-01]
- [1.38564226e+00]
- [1.90816050e+00]
- [2.50391587e+00]
- [2.88772611e+00]
- [3.28793095e+00]
- [3.70090558e+00]
- [3.97956470e+00]
- [4.25699449e+00]
- [4.53127573e+00]]</t>
+          <t>[[4.44229680e-05]
+ [3.89736075e-04]
+ [1.16820903e-03]
+ [9.06837531e-03]
+ [2.09356807e-02]
+ [3.72097624e-02]
+ [5.77745601e-02]
+ [8.25134485e-02]
+ [1.11309304e-01]
+ [1.44044570e-01]
+ [1.67998378e-01]
+ [1.93615619e-01]
+ [2.20861240e-01]
+ [2.49700151e-01]
+ [2.80097273e-01]
+ [3.12017514e-01]
+ [3.28537797e-01]
+ [3.45425675e-01]
+ [3.62676753e-01]
+ [5.24215372e-01]
+ [7.36147057e-01]
+ [9.93147215e-01]
+ [1.44365403e+00]
+ [1.98521293e+00]
+ [2.59548654e+00]
+ [2.98672955e+00]
+ [3.39468495e+00]
+ [3.81690739e+00]
+ [4.10239504e+00]
+ [4.38635254e+00]
+ [4.66637731e+00]]</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -11688,7 +11685,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>[4.53127573]</t>
+          <t>[4.66637731]</t>
         </is>
       </c>
       <c r="E454" t="inlineStr"/>
@@ -11711,24 +11708,24 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>[[-33845345.57814118]
- [-31437110.28398506]
- [-28874666.74158047]
- [-27967620.23621938]
- [-27054482.19535065]
- [-26128710.74950017]
- [-25182896.17434377]
- [-24208284.06650789]
- [-23194122.098282  ]
- [-22489974.93170974]
- [-21757362.53273644]
- [-20990195.62801227]
- [-20329552.15456163]
- [-19794388.75586013]
- [-19259225.35715852]
- [-18991643.65780798]
- [-18724061.95845683]
- [-18456480.25910623]]</t>
+          <t>[[-32697059.03468741]
+ [-30175446.86343521]
+ [-27506266.39537468]
+ [-26565917.63419389]
+ [-25619736.72909717]
+ [-24661457.26069708]
+ [-23683966.31129895]
+ [-22678855.85183236]
+ [-21635801.32351528]
+ [-20913524.40190484]
+ [-20163927.94084533]
+ [-19381168.24628064]
+ [-18700512.84477184]
+ [-18140154.58449364]
+ [-17579796.32421508]
+ [-17299617.19407608]
+ [-17019438.06393687]
+ [-16739258.9337976 ]]</t>
         </is>
       </c>
       <c r="E455" t="inlineStr"/>
@@ -11751,24 +11748,24 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>[[ -1312346.6454299 ]
- [ -9581481.26101986]
- [-24233317.16684327]
- [  3788138.92831149]
- [  3788547.84499232]
- [  3788963.95096852]
- [  3789397.17294348]
- [  3789859.59152717]
- [  3790366.85247183]
- [  3789586.61817989]
- [  3789868.90766635]
- [  3790185.40114281]
- [  3790108.90595391]
- [  3789506.96614786]
- [  3789629.39876533]
- [  3788393.31780276]
- [  3788422.86327415]
- [  3788452.05433818]]</t>
+          <t>[[ -1382497.28165112]
+ [ -9872387.79252962]
+ [-24411672.5596185 ]
+ [  3788183.72518338]
+ [  3788606.32648521]
+ [  3789035.01246107]
+ [  3789479.31235714]
+ [  3789950.83810686]
+ [  3790464.59269039]
+ [  3789653.4717076 ]
+ [  3789935.77172221]
+ [  3790250.6528842 ]
+ [  3790188.42008746]
+ [  3789622.09480864]
+ [  3789750.11392619]
+ [  3788455.73223521]
+ [  3788486.62886635]
+ [  3788517.15601904]]</t>
         </is>
       </c>
       <c r="E456" t="inlineStr"/>
@@ -11791,24 +11788,24 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>[[ -10461.46086178]
- [ -76602.58112886]
- [-196549.7254044 ]
- [  22438.05148973]
- [  22441.34515523]
- [  22444.71820258]
- [  22448.25185962]
- [  22452.04588509]
- [  22456.23036975]
- [  22449.98309759]
- [  22452.32953657]
- [  22454.96708559]
- [  22454.40672315]
- [  22449.53855255]
- [  22450.59680303]
- [  22440.46314179]
- [  22440.72129238]
- [  22440.97730367]]</t>
+          <t>[[ -11018.45387144]
+ [ -78912.32640418]
+ [-197996.29860123]
+ [  22438.40683563]
+ [  22441.81040376]
+ [  22445.28526579]
+ [  22448.90938414]
+ [  22452.77862991]
+ [  22457.01773721]
+ [  22450.52301192]
+ [  22452.87059208]
+ [  22455.49604598]
+ [  22455.05364882]
+ [  22450.47951755]
+ [  22451.5860123 ]
+ [  22440.97561608]
+ [  22441.2455633 ]
+ [  22441.51328379]]</t>
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
@@ -11831,24 +11828,24 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>[[  -68916.04704796]
- [ -994586.66387944]
- [-5210684.4724758 ]
- [-5937796.22395837]
- [-5822033.16149199]
- [-5705444.87964995]
- [-5588115.82731745]
- [-5470131.63716487]
- [-5351580.37036697]
- [-5272310.13605997]
- [-5192862.04001098]
- [-5113265.81980161]
- [-5033554.27069383]
- [-4953726.02530048]
- [-4873770.20736212]
- [-4833768.28834138]
- [-4793741.93910272]
- [-4753693.12439707]]</t>
+          <t>[[  -72319.08235525]
+ [-1015871.37862481]
+ [-5249189.0471606 ]
+ [-5927878.67183817]
+ [-5812286.16164492]
+ [-5695924.65916833]
+ [-5578879.63923207]
+ [-5461237.55731531]
+ [-5343087.04466388]
+ [-5264117.61667689]
+ [-5184996.52722443]
+ [-5105753.35461736]
+ [-5026420.64558033]
+ [-4946998.16227295]
+ [-4867476.52338713]
+ [-4827703.28732627]
+ [-4787912.85568536]
+ [-4748107.21207826]]</t>
         </is>
       </c>
       <c r="E458" t="inlineStr"/>
@@ -11871,24 +11868,24 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>[[8.69133441e+06]
- [1.25351417e+08]
- [6.50508028e+08]
- [7.37028629e+08]
- [7.17639591e+08]
- [6.98149097e+08]
- [6.78568362e+08]
- [6.58908661e+08]
- [6.39181478e+08]
- [6.26002536e+08]
- [6.12803098e+08]
- [5.99586938e+08]
- [5.86358175e+08]
- [5.73116732e+08]
- [5.59861374e+08]
- [5.53231405e+08]
- [5.46598895e+08]
- [5.39964096e+08]]</t>
+          <t>[[9.12158494e+06]
+ [1.28065253e+08]
+ [6.55417965e+08]
+ [7.35879368e+08]
+ [7.16511706e+08]
+ [6.97049520e+08]
+ [6.77504105e+08]
+ [6.57886791e+08]
+ [6.38209082e+08]
+ [6.25067164e+08]
+ [6.11907879e+08]
+ [5.98734962e+08]
+ [5.85552487e+08]
+ [5.72360495e+08]
+ [5.59157918e+08]
+ [5.52555696e+08]
+ [5.45951773e+08]
+ [5.39346401e+08]]</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -11911,24 +11908,24 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>[[1269992.78700886]
- [2930187.44289247]
- [5490698.03965557]
- [9738237.80122823]
- [9738184.72462117]
- [9738131.29214705]
- [9738077.12102502]
- [9738021.77771025]
- [9737964.7499971 ]
- [9737905.40880263]
- [9737864.20778752]
- [9737821.34158664]
- [9737776.45395654]
- [9737737.79944054]
- [9737706.48703929]
- [9737675.1748394 ]
- [9737659.51881495]
- [9737643.86284086]]</t>
+          <t>[[1317132.02297614]
+ [3012807.83635415]
+ [5574390.31942892]
+ [9738085.36088974]
+ [9738032.81126507]
+ [9737979.93629441]
+ [9737926.38581087]
+ [9737871.76235991]
+ [9737815.59613424]
+ [9737757.31025439]
+ [9737716.94983386]
+ [9737675.06316694]
+ [9737631.32375775]
+ [9737593.29009902]
+ [9737561.97862622]
+ [9737530.66735482]
+ [9737515.01179458]
+ [9737499.35628468]]</t>
         </is>
       </c>
       <c r="E460" t="inlineStr"/>
@@ -11951,9 +11948,9 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>[[ 3.78813893e+06]
- [ 2.24380515e+04]
- [-2.88746667e+07]]</t>
+          <t>[[ 3.78818373e+06]
+ [ 2.24384068e+04]
+ [-2.75062664e+07]]</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
@@ -11976,9 +11973,9 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>[[-6.05264975e+06]
- [ 7.56304931e+08]
- [ 9.73823780e+06]]</t>
+          <t>[[-6.04261669e+06]
+ [ 7.55141119e+08]
+ [ 9.73808536e+06]]</t>
         </is>
       </c>
       <c r="E462" t="inlineStr"/>
@@ -12030,12 +12027,11 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
- 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
- 8.9902061  8.9902061  8.9902061  8.9902061  8.9902061  8.9902061
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 7.8616544 6.9308272 6.
+ 6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr"/>
@@ -12058,11 +12054,11 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.04345593 0.04345593 0.04345593 0.025      0.025      0.025
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02801377 0.02801377 0.02801377 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
@@ -12161,11 +12157,11 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168 2.09897168
- 1.16227031 1.16227031 1.16227031 0.67019989 0.67019989 0.67019989
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879 2.19778879
+ 0.8253358  0.8253358  0.8253358  0.58977466 0.58977466 0.58977466
+ 0.55848487 0.49590528 0.43332569 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -12188,11 +12184,11 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -12215,11 +12211,11 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>[1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759 1.19530759
- 0.66116003 0.66116003 0.66116003 0.38084559 0.38084559 0.38084559
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826 1.25201826
+ 0.4690155  0.4690155  0.4690155  0.33501586 0.33501586 0.33501586
+ 0.31725999 0.28174831 0.24623674 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12242,11 +12238,11 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>[41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572 41.75640572
- 18.39539232 18.39539232 18.39539232 10.65638765 10.65638765 10.65638765
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758 41.75804758
+ 15.84988933 15.84988933 15.84988933 11.34679764 11.34679764 11.34679764
+  9.63495007  6.74546829  4.50049423  3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12269,11 +12265,11 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
-  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+  7.92494466  7.92494466  7.92494466  5.67339882  5.67339882  5.67339882
+  4.81747503  3.37273415  2.25024712  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12296,11 +12292,11 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
- 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286 20.87820286
-  9.19769616  9.19769616  9.19769616  5.32819383  5.32819383  5.32819383
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+ 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379 20.87902379
+  7.92494466  7.92494466  7.92494466  5.67339882  5.67339882  5.67339882
+  4.81747503  3.37273415  2.25024712  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12425,36 +12421,36 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[[-3.38453456e+07]
- [-3.14371103e+07]
- [-2.88746667e+07]
- [-2.79676202e+07]
- [-2.70544822e+07]
- [-2.61287107e+07]
- [-2.51828962e+07]
- [-2.42082841e+07]
- [-2.31941221e+07]
- [-2.24899749e+07]
- [-2.17573625e+07]
- [-2.09901956e+07]
- [-2.03295522e+07]
- [-1.97943888e+07]
- [-1.92592254e+07]
- [-1.89916437e+07]
- [-1.87240620e+07]
- [-1.84564803e+07]
- [-1.63379177e+07]
- [-1.51985972e+07]
- [-1.40589184e+07]
- [-1.31179607e+07]
- [-1.21766573e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [-3.62633727e-08]]</t>
+          <t>[[-3.26970590e+07]
+ [-3.01754469e+07]
+ [-2.75062664e+07]
+ [-2.65659176e+07]
+ [-2.56197367e+07]
+ [-2.46614573e+07]
+ [-2.36839663e+07]
+ [-2.26788559e+07]
+ [-2.16358013e+07]
+ [-2.09135244e+07]
+ [-2.01639279e+07]
+ [-1.93811682e+07]
+ [-1.87005128e+07]
+ [-1.81401546e+07]
+ [-1.75797963e+07]
+ [-1.72996172e+07]
+ [-1.70194381e+07]
+ [-1.67392589e+07]
+ [-1.49500873e+07]
+ [-1.41399954e+07]
+ [-1.33295170e+07]
+ [-1.25004188e+07]
+ [-1.16709465e+07]
+ [-1.08411119e+07]
+ [-1.03692612e+07]
+ [-9.94996009e+06]
+ [-9.58348446e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12477,36 +12473,36 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[[-1.31234665e+06]
- [-9.58148126e+06]
- [-2.42333172e+07]
- [ 3.78813893e+06]
- [ 3.78854784e+06]
- [ 3.78896395e+06]
- [ 3.78939717e+06]
- [ 3.78985959e+06]
- [ 3.79036685e+06]
- [ 3.78958662e+06]
- [ 3.78986891e+06]
- [ 3.79018540e+06]
- [ 3.79010891e+06]
- [ 3.78950697e+06]
- [ 3.78962940e+06]
- [ 3.78839332e+06]
- [ 3.78842286e+06]
- [ 3.78845205e+06]
- [ 3.79407040e+06]
- [ 3.79601676e+06]
- [ 3.79775129e+06]
- [ 3.79802965e+06]
- [ 3.80053395e+06]
- [ 3.80242652e+06]
- [ 3.79655180e+06]
- [ 3.79610005e+06]
- [ 3.79549900e+06]
- [ 3.79245399e+06]
- [ 3.79242779e+06]
- [ 5.29999046e+03]]</t>
+          <t>[[-1.38249728e+06]
+ [-9.87238779e+06]
+ [-2.44116726e+07]
+ [ 3.78818373e+06]
+ [ 3.78860633e+06]
+ [ 3.78903501e+06]
+ [ 3.78947931e+06]
+ [ 3.78995084e+06]
+ [ 3.79046459e+06]
+ [ 3.78965347e+06]
+ [ 3.78993577e+06]
+ [ 3.79025065e+06]
+ [ 3.79018842e+06]
+ [ 3.78962209e+06]
+ [ 3.78975011e+06]
+ [ 3.78845573e+06]
+ [ 3.78848663e+06]
+ [ 3.78851716e+06]
+ [ 3.79217229e+06]
+ [ 3.79378064e+06]
+ [ 3.79521231e+06]
+ [ 3.79729393e+06]
+ [ 3.79936567e+06]
+ [ 3.80093200e+06]
+ [ 3.79548927e+06]
+ [ 3.79487280e+06]
+ [ 3.79412869e+06]
+ [ 3.79149443e+06]
+ [ 3.79146704e+06]
+ [ 4.33914323e+03]]</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -12529,36 +12525,36 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[[-1.04614609e+04]
- [-7.66025811e+04]
- [-1.96549725e+05]
- [ 2.24380515e+04]
- [ 2.24413452e+04]
- [ 2.24447182e+04]
- [ 2.24482519e+04]
- [ 2.24520459e+04]
- [ 2.24562304e+04]
- [ 2.24499831e+04]
- [ 2.24523295e+04]
- [ 2.24549671e+04]
- [ 2.24544067e+04]
- [ 2.24495386e+04]
- [ 2.24505968e+04]
- [ 2.24404631e+04]
- [ 2.24407213e+04]
- [ 2.24409773e+04]
- [ 2.24880010e+04]
- [ 2.25056889e+04]
- [ 2.25220726e+04]
- [ 2.25272890e+04]
- [ 2.25543383e+04]
- [ 2.25775891e+04]
- [ 2.25242776e+04]
- [ 2.25230977e+04]
- [ 2.25214831e+04]
- [ 2.24916493e+04]
- [ 2.24946811e+04]
- [ 6.63527253e+01]]</t>
+          <t>[[-1.10184539e+04]
+ [-7.89123264e+04]
+ [-1.97996299e+05]
+ [ 2.24384068e+04]
+ [ 2.24418104e+04]
+ [ 2.24452853e+04]
+ [ 2.24489094e+04]
+ [ 2.24527786e+04]
+ [ 2.24570177e+04]
+ [ 2.24505230e+04]
+ [ 2.24528706e+04]
+ [ 2.24554960e+04]
+ [ 2.24550536e+04]
+ [ 2.24504795e+04]
+ [ 2.24515860e+04]
+ [ 2.24409756e+04]
+ [ 2.24412456e+04]
+ [ 2.24415133e+04]
+ [ 2.24721869e+04]
+ [ 2.24868001e+04]
+ [ 2.25003217e+04]
+ [ 2.25208232e+04]
+ [ 2.25431990e+04]
+ [ 2.25624408e+04]
+ [ 2.25130523e+04]
+ [ 2.25098494e+04]
+ [ 2.25064603e+04]
+ [ 2.24810280e+04]
+ [ 2.24840470e+04]
+ [ 5.57175011e+01]]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12581,36 +12577,36 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[[-6.89160470e+04]
- [-9.94586664e+05]
- [-5.21068447e+06]
- [-5.93779622e+06]
- [-5.82203316e+06]
- [-5.70544488e+06]
- [-5.58811583e+06]
- [-5.47013164e+06]
- [-5.35158037e+06]
- [-5.27231014e+06]
- [-5.19286204e+06]
- [-5.11326582e+06]
- [-5.03355427e+06]
- [-4.95372603e+06]
- [-4.87377021e+06]
- [-4.83376829e+06]
- [-4.79374194e+06]
- [-4.75369312e+06]
- [-4.44395023e+06]
- [-4.12922770e+06]
- [-3.81087341e+06]
- [-3.34784944e+06]
- [-2.87460926e+06]
- [-2.39496495e+06]
- [-2.10604383e+06]
- [-1.81589507e+06]
- [-1.52414415e+06]
- [-1.32892870e+06]
- [-1.13312611e+06]
- [-6.54608613e-04]]</t>
+          <t>[[-7.23190824e+04]
+ [-1.01587138e+06]
+ [-5.24918905e+06]
+ [-5.92787867e+06]
+ [-5.81228616e+06]
+ [-5.69592466e+06]
+ [-5.57887964e+06]
+ [-5.46123756e+06]
+ [-5.34308704e+06]
+ [-5.26411762e+06]
+ [-5.18499653e+06]
+ [-5.10575335e+06]
+ [-5.02642065e+06]
+ [-4.94699816e+06]
+ [-4.86747652e+06]
+ [-4.82770329e+06]
+ [-4.78791286e+06]
+ [-4.74810721e+06]
+ [-4.44006159e+06]
+ [-4.12624091e+06]
+ [-3.80786442e+06]
+ [-3.34457377e+06]
+ [-2.87229296e+06]
+ [-2.39430361e+06]
+ [-2.10640099e+06]
+ [-1.81705505e+06]
+ [-1.52546954e+06]
+ [-1.32976616e+06]
+ [-1.13297069e+06]
+ [-5.49639505e-04]]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12633,36 +12629,36 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>[[ 8.69133441e+06]
- [ 1.25351417e+08]
- [ 6.50508028e+08]
- [ 7.37028629e+08]
- [ 7.17639591e+08]
- [ 6.98149097e+08]
- [ 6.78568362e+08]
- [ 6.58908661e+08]
- [ 6.39181478e+08]
- [ 6.26002536e+08]
- [ 6.12803098e+08]
- [ 5.99586938e+08]
- [ 5.86358175e+08]
- [ 5.73116732e+08]
- [ 5.59861374e+08]
- [ 5.53231405e+08]
- [ 5.46598895e+08]
- [ 5.39964096e+08]
- [ 4.88791272e+08]
- [ 4.37085302e+08]
- [ 3.85017652e+08]
- [ 3.09861605e+08]
- [ 2.33829502e+08]
- [ 1.57397498e+08]
- [ 1.11577363e+08]
- [ 6.57917205e+07]
- [ 2.00737807e+07]
- [-1.03143277e+07]
- [-4.06119505e+07]
- [ 5.22819658e-02]]</t>
+          <t>[[ 9.12158494e+06]
+ [ 1.28065253e+08]
+ [ 6.55417965e+08]
+ [ 7.35879368e+08]
+ [ 7.16511706e+08]
+ [ 6.97049520e+08]
+ [ 6.77504105e+08]
+ [ 6.57886791e+08]
+ [ 6.38209082e+08]
+ [ 6.25067164e+08]
+ [ 6.11907879e+08]
+ [ 5.98734962e+08]
+ [ 5.85552487e+08]
+ [ 5.72360495e+08]
+ [ 5.59157918e+08]
+ [ 5.52555696e+08]
+ [ 5.45951773e+08]
+ [ 5.39346401e+08]
+ [ 4.88378674e+08]
+ [ 4.36786251e+08]
+ [ 3.84728262e+08]
+ [ 3.09548439e+08]
+ [ 2.33601153e+08]
+ [ 1.57301140e+08]
+ [ 1.11551951e+08]
+ [ 6.58156653e+07]
+ [ 2.01084535e+07]
+ [-1.02983354e+07]
+ [-4.06259918e+07]
+ [ 4.28128616e-02]]</t>
         </is>
       </c>
       <c r="E482" t="inlineStr"/>
@@ -12685,35 +12681,35 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[[1269992.78700886]
- [2930187.44289247]
- [5490698.03965557]
- [9738237.80122823]
- [9738184.72462117]
- [9738131.29214705]
- [9738077.12102502]
- [9738021.77771025]
- [9737964.7499971 ]
- [9737905.40880263]
- [9737864.20778752]
- [9737821.34158664]
- [9737776.45395654]
- [9737737.79944054]
- [9737706.48703929]
- [9737675.1748394 ]
- [9737659.51881495]
- [9737643.86284086]
- [9738394.94205146]
- [9738274.68808106]
- [9738154.29009219]
- [9739124.746521  ]
- [9738952.27408506]
- [9738779.74439801]
- [9738696.98055442]
- [9738788.87033338]
- [9738911.07638571]
- [9738933.45190322]
- [9738864.35339329]
+          <t>[[1317132.02297614]
+ [3012807.83635415]
+ [5574390.31942892]
+ [9738085.36088974]
+ [9738032.81126507]
+ [9737979.93629441]
+ [9737926.38581087]
+ [9737871.76235991]
+ [9737815.59613424]
+ [9737757.31025439]
+ [9737716.94983386]
+ [9737675.06316694]
+ [9737631.32375775]
+ [9737593.29009902]
+ [9737561.97862622]
+ [9737530.66735482]
+ [9737515.01179458]
+ [9737499.35628468]
+ [9738893.35770923]
+ [9738773.01890058]
+ [9738652.45189981]
+ [9739324.2320256 ]
+ [9739151.53233168]
+ [9738978.76084224]
+ [9738932.42805958]
+ [9739116.46162073]
+ [9739368.55907656]
+ [9739476.12157143]
+ [9739406.89068819]
  [      0.        ]]</t>
         </is>
       </c>
@@ -12737,24 +12733,24 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[[-1.42534132e+07]
- [ 1.20117790e+07]
- [ 1.26303103e+08]
- [ 1.45363891e+08]
- [ 1.41624383e+08]
- [ 1.37869050e+08]
- [ 1.34103836e+08]
- [ 1.30335341e+08]
- [ 1.26571160e+08]
- [ 1.24069146e+08]
- [ 1.21576282e+08]
- [ 1.19096280e+08]
- [ 1.16562814e+08]
- [ 1.13966837e+08]
- [ 1.11367865e+08]
- [ 1.10067886e+08]
- [ 1.08767360e+08]
- [ 1.07466341e+08]]</t>
+          <t>[[-1.29565717e+07]
+ [ 1.32360710e+07]
+ [ 1.25492347e+08]
+ [ 1.42862583e+08]
+ [ 1.39215023e+08]
+ [ 1.35553065e+08]
+ [ 1.31882323e+08]
+ [ 1.28209009e+08]
+ [ 1.24540244e+08]
+ [ 1.22101707e+08]
+ [ 1.19671944e+08]
+ [ 1.17254400e+08]
+ [ 1.14788386e+08]
+ [ 1.12265633e+08]
+ [ 1.09740652e+08]
+ [ 1.08477965e+08]
+ [ 1.07214920e+08]
+ [ 1.05951569e+08]]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12777,24 +12773,24 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[[ 1234665.82567559]
- [ 8331605.34946205]
- [20865451.98295691]
- [ 4217557.94765339]
- [ 4217894.34587917]
- [ 4218236.72068228]
- [ 4218593.33584015]
- [ 4218974.25169411]
- [ 4219392.50283054]
- [ 4218733.34749659]
- [ 4218965.08439081]
- [ 4219225.25818781]
- [ 4219156.4281149 ]
- [ 4218648.66594499]
- [ 4218747.72630204]
- [ 4217710.21225681]
- [ 4217733.24561465]
- [ 4217755.98247362]]</t>
+          <t>[[ 1242916.21210877]
+ [ 8202615.6952518 ]
+ [20085363.52880708]
+ [ 4050929.58695007]
+ [ 4051261.60081719]
+ [ 4051598.44057687]
+ [ 4051947.68070721]
+ [ 4052318.55422753]
+ [ 4052722.99509319]
+ [ 4052068.98869824]
+ [ 4052290.22270529]
+ [ 4052537.31979015]
+ [ 4052483.00775115]
+ [ 4052026.66001737]
+ [ 4052125.61722144]
+ [ 4051088.45263286]
+ [ 4051111.48273754]
+ [ 4051134.21773587]]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12819,17 +12815,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-13026528.88681686]
- [-24458155.52211561]
- [-21281118.29003412]
- [-18130787.14773221]
- [-15010386.60655286]
- [-11925067.06091485]
- [ -8882323.3178487 ]
- [ -6382240.84894479]
- [ -4416751.44675377]
- [ -2484959.53096633]
- [  -764101.56266812]
+ [-11881783.47860715]
+ [-22308821.53833057]
+ [-19410976.00917757]
+ [-16537489.69183539]
+ [-13691303.7340138 ]
+ [-10877115.92373028]
+ [ -8101762.43930405]
+ [ -5821382.23731104]
+ [ -4028616.12829985]
+ [ -2266586.23771603]
+ [  -696953.83952091]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -12893,24 +12889,24 @@
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[[0.06517158]
- [0.08489916]
- [0.62448404]
- [0.71976029]
- [0.69431373]
- [0.66899822]
- [0.64385962]
- [0.61895268]
- [0.59434318]
- [0.57692711]
- [0.56096309]
- [0.54522976]
- [0.52983406]
- [0.51638639]
- [0.50465921]
- [0.49879326]
- [0.4929257 ]
- [0.48705623]]</t>
+          <t>[[0.05938944]
+ [0.08780122]
+ [0.6165312 ]
+ [0.70259922]
+ [0.67839871]
+ [0.65431105]
+ [0.63037803]
+ [0.6066494 ]
+ [0.58318481]
+ [0.56662234]
+ [0.55137375]
+ [0.53633179]
+ [0.52159254]
+ [0.5086269 ]
+ [0.4972324 ]
+ [0.49153411]
+ [0.48583501]
+ [0.48013482]]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12929,24 +12925,24 @@
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
-          <t>[[0.07292459]
- [0.11294649]
- [0.46142436]
- [0.21218501]
- [0.18926528]
- [0.16682368]
- [0.14499918]
- [0.124016  ]
- [0.10424316]
- [0.07311111]
- [0.06550901]
- [0.05896734]
- [0.0542423 ]
- [0.05206918]
- [0.05113901]
- [0.0460699 ]
- [0.04562228]
- [0.04517626]]</t>
+          <t>[[0.06511332]
+ [0.10140446]
+ [0.3896562 ]
+ [0.17687682]
+ [0.15782911]
+ [0.13922222]
+ [0.12118829]
+ [0.10393831]
+ [0.08781478]
+ [0.06165749]
+ [0.05566212]
+ [0.0505956 ]
+ [0.04698839]
+ [0.04526272]
+ [0.04439011]
+ [0.04015586]
+ [0.03973706]
+ [0.03932027]]</t>
         </is>
       </c>
       <c r="E489" t="inlineStr"/>
@@ -12965,24 +12961,24 @@
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[[0.11445009]
- [0.24327249]
- [0.84673359]
- [0.94390085]
- [0.9177151 ]
- [0.89140693]
- [0.86496156]
- [0.83835973]
- [0.81157557]
- [0.79360798]
- [0.7755312 ]
- [0.75732784]
- [0.73953958]
- [0.72223243]
- [0.70492687]
- [0.69627805]
- [0.6876307 ]
- [0.67898512]]</t>
+          <t>[[0.10498879]
+ [0.22951085]
+ [0.80435019]
+ [0.88976224]
+ [0.86483661]
+ [0.83980622]
+ [0.81465835]
+ [0.7893762 ]
+ [0.76393695]
+ [0.74688157]
+ [0.72973133]
+ [0.71247068]
+ [0.69558912]
+ [0.67914647]
+ [0.66270965]
+ [0.65449675]
+ [0.64628633]
+ [0.63807868]]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -13005,36 +13001,36 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[[-1.42534132e+07]
- [ 1.20117790e+07]
- [ 1.26303103e+08]
- [ 1.45363891e+08]
- [ 1.41624383e+08]
- [ 1.37869050e+08]
- [ 1.34103836e+08]
- [ 1.30335341e+08]
- [ 1.26571160e+08]
- [ 1.24069146e+08]
- [ 1.21576282e+08]
- [ 1.19096280e+08]
- [ 1.16562814e+08]
- [ 1.13966837e+08]
- [ 1.11367865e+08]
- [ 1.10067886e+08]
- [ 1.08767360e+08]
- [ 1.01063773e+08]
- [ 1.98523061e+08]
- [ 1.77016525e+08]
- [ 1.55353028e+08]
- [ 2.13060741e+08]
- [ 1.57385858e+08]
- [ 1.01411987e+08]
- [ 7.46079138e+07]
- [ 4.72232584e+07]
- [ 5.77999713e+06]
- [-4.93449242e+06]
- [ 3.60973607e+07]
- [ 7.00005981e-02]]</t>
+          <t>[[-1.29565717e+07]
+ [ 1.32360710e+07]
+ [ 1.25492347e+08]
+ [ 1.42862583e+08]
+ [ 1.39215023e+08]
+ [ 1.35553065e+08]
+ [ 1.31882323e+08]
+ [ 1.28209009e+08]
+ [ 1.24540244e+08]
+ [ 1.22101707e+08]
+ [ 1.19671944e+08]
+ [ 1.17254400e+08]
+ [ 1.14788386e+08]
+ [ 1.12265633e+08]
+ [ 1.09740652e+08]
+ [ 1.08477965e+08]
+ [ 1.07214920e+08]
+ [ 1.05951569e+08]
+ [ 2.52817786e+08]
+ [ 2.25178831e+08]
+ [ 1.97282105e+08]
+ [ 2.18683697e+08]
+ [ 1.61239266e+08]
+ [ 1.03522881e+08]
+ [ 7.78599106e+07]
+ [ 5.21285277e+07]
+ [ 6.85470315e+06]
+ [-5.93994038e+06]
+ [ 4.51334077e+07]
+ [ 7.14741754e-02]]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -13057,36 +13053,36 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[[1.23466583e+06]
- [8.33160535e+06]
- [2.08654520e+07]
- [4.21755795e+06]
- [4.21789435e+06]
- [4.21823672e+06]
- [4.21859334e+06]
- [4.21897425e+06]
- [4.21939250e+06]
- [4.21873335e+06]
- [4.21896508e+06]
- [4.21922526e+06]
- [4.21915643e+06]
- [4.21864867e+06]
- [4.21874773e+06]
- [4.21771021e+06]
- [4.21773325e+06]
- [4.16002667e+06]
- [7.85617883e+06]
- [7.85909664e+06]
- [7.86169404e+06]
- [1.36284935e+07]
- [1.36350047e+07]
- [1.36399096e+07]
- [1.43850733e+07]
- [1.61755331e+07]
- [1.84417530e+07]
- [1.98044340e+07]
- [1.98042961e+07]
- [1.85672989e+04]]</t>
+          <t>[[1.24291621e+06]
+ [8.20261570e+06]
+ [2.00853635e+07]
+ [4.05092959e+06]
+ [4.05126160e+06]
+ [4.05159844e+06]
+ [4.05194768e+06]
+ [4.05231855e+06]
+ [4.05272300e+06]
+ [4.05206899e+06]
+ [4.05229022e+06]
+ [4.05253732e+06]
+ [4.05248301e+06]
+ [4.05202666e+06]
+ [4.05212562e+06]
+ [4.05108845e+06]
+ [4.05111148e+06]
+ [4.05113422e+06]
+ [1.07867804e+07]
+ [1.07901764e+07]
+ [1.07931955e+07]
+ [1.51083046e+07]
+ [1.51144220e+07]
+ [1.51190307e+07]
+ [1.61720188e+07]
+ [1.88086055e+07]
+ [2.24045225e+07]
+ [2.47237878e+07]
+ [2.47236102e+07]
+ [1.89928299e+04]]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -13111,34 +13107,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.30265289e+07]
- [-2.44581555e+07]
- [-2.12811183e+07]
- [-1.81307871e+07]
- [-1.50103866e+07]
- [-1.19250671e+07]
- [-8.88232332e+06]
- [-6.38224085e+06]
- [-4.41675145e+06]
- [-2.48495953e+06]
- [-7.64101563e+05]
+ [-1.18817835e+07]
+ [-2.23088215e+07]
+ [-1.94109760e+07]
+ [-1.65374897e+07]
+ [-1.36913037e+07]
+ [-1.08771159e+07]
+ [-8.10176244e+06]
+ [-5.82138224e+06]
+ [-4.02861613e+06]
+ [-2.26658624e+06]
+ [-6.96953840e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.03964661e+03]
- [-3.41531547e+03]
- [-3.84192874e+03]
- [-4.15280477e+03]
- [-7.74663642e+03]
- [-8.24489127e+03]
- [-8.66182953e+03]
- [-8.58341336e+03]
- [-8.00992605e+03]
- [-7.39261483e+03]
- [-7.11306770e+03]
- [-7.19770642e+03]
- [-7.27930418e+03]]</t>
+ [-1.00401069e+03]
+ [-5.83592151e+03]
+ [-6.56489709e+03]
+ [-7.09610661e+03]
+ [-1.06516027e+04]
+ [-1.13367017e+04]
+ [-1.19099906e+04]
+ [-1.16635221e+04]
+ [-1.05883769e+04]
+ [-9.44157071e+03]
+ [-8.89877508e+03]
+ [-9.00466201e+03]
+ [-9.10674456e+03]]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -13209,36 +13205,36 @@
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[[6.51715778e-02]
- [8.48991628e-02]
- [6.24484042e-01]
- [7.19760292e-01]
- [6.94313727e-01]
- [6.68998223e-01]
- [6.43859620e-01]
- [6.18952679e-01]
- [5.94343176e-01]
- [5.76927105e-01]
- [5.60963085e-01]
- [5.45229757e-01]
- [5.29834060e-01]
- [5.16386390e-01]
- [5.04659205e-01]
- [4.98793261e-01]
- [4.92925697e-01]
- [4.58146319e-01]
- [8.99783396e-01]
- [8.02794337e-01]
- [7.05168475e-01]
- [9.69317206e-01]
- [7.19643641e-01]
- [4.70856381e-01]
- [3.55690826e-01]
- [2.48298988e-01]
- [1.46782221e-01]
- [1.56700345e-01]
- [2.25176695e-01]
- [1.49095566e-04]]</t>
+          <t>[[5.93894367e-02]
+ [8.78012167e-02]
+ [6.16531201e-01]
+ [7.02599217e-01]
+ [6.78398713e-01]
+ [6.54311052e-01]
+ [6.30378029e-01]
+ [6.06649401e-01]
+ [5.83184809e-01]
+ [5.66622337e-01]
+ [5.51373745e-01]
+ [5.36331789e-01]
+ [5.21592543e-01]
+ [5.08626900e-01]
+ [4.97232398e-01]
+ [4.91534108e-01]
+ [4.85835009e-01]
+ [4.80137086e-01]
+ [1.14630655e+00]
+ [1.02171563e+00]
+ [8.96070297e-01]
+ [9.95909028e-01]
+ [7.38654372e-01]
+ [4.82873793e-01]
+ [3.74177028e-01]
+ [2.77975780e-01]
+ [1.78189781e-01]
+ [1.95484942e-01]
+ [2.81338004e-01]
+ [1.54344133e-04]]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -13257,36 +13253,36 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[0.07292459]
- [0.11294649]
- [0.46142436]
- [0.21218501]
- [0.18926528]
- [0.16682368]
- [0.14499918]
- [0.124016  ]
- [0.10424316]
- [0.07311111]
- [0.06550901]
- [0.05896734]
- [0.0542423 ]
- [0.05206918]
- [0.05113901]
- [0.0460699 ]
- [0.04562228]
- [0.04614998]
- [0.13756139]
- [0.13330761]
- [0.12912078]
- [0.41136271]
- [0.40233309]
- [0.39332033]
- [0.3353761 ]
- [0.34448792]
- [0.35795109]
- [0.32581165]
- [0.32315994]
- [0.00051091]]</t>
+          <t>[[0.06511332]
+ [0.10140446]
+ [0.3896562 ]
+ [0.17687682]
+ [0.15782911]
+ [0.13922222]
+ [0.12118829]
+ [0.10393831]
+ [0.08781478]
+ [0.06165749]
+ [0.05566212]
+ [0.0505956 ]
+ [0.04698839]
+ [0.04526272]
+ [0.04439011]
+ [0.04015586]
+ [0.03973706]
+ [0.03931982]
+ [0.29562005]
+ [0.28926968]
+ [0.28293273]
+ [0.63604784]
+ [0.62319024]
+ [0.61030461]
+ [0.51668936]
+ [0.53254254]
+ [0.55794901]
+ [0.50492478]
+ [0.50159668]
+ [0.00080126]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -13305,36 +13301,36 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[3.62806713e-01]
- [5.66127586e-01]
- [1.54209799e+00]
- [1.68887437e+00]
- [1.63309413e+00]
- [1.57751296e+00]
- [1.52201179e+00]
- [1.46645682e+00]
- [1.41068969e+00]
- [1.37331636e+00]
- [1.33569468e+00]
- [1.29773925e+00]
- [1.26200063e+00]
- [1.22872981e+00]
- [1.19564895e+00]
- [1.17918427e+00]
- [1.16276792e+00]
- [1.11166147e+00]
- [2.40289265e+00]
- [2.12433585e+00]
- [1.85471129e+00]
- [3.04318075e+00]
- [2.32399330e+00]
- [1.64620206e+00]
- [1.44128502e+00]
- [1.37082410e+00]
- [1.13665661e+00]
- [1.13459114e+00]
- [1.74533576e+00]
- [5.09376952e-10]]</t>
+          <t>[[3.52324977e-01]
+ [5.67011684e-01]
+ [1.58016055e+00]
+ [1.71967280e+00]
+ [1.66180912e+00]
+ [1.60420033e+00]
+ [1.54673132e+00]
+ [1.48927279e+00]
+ [1.43167176e+00]
+ [1.39311792e+00]
+ [1.35435204e+00]
+ [1.31529171e+00]
+ [1.27840100e+00]
+ [1.24392125e+00]
+ [1.20965162e+00]
+ [1.19260041e+00]
+ [1.17560250e+00]
+ [1.15865805e+00]
+ [3.21592622e+00]
+ [2.85220347e+00]
+ [2.49782642e+00]
+ [3.11115013e+00]
+ [2.37906439e+00]
+ [1.68065141e+00]
+ [1.51189846e+00]
+ [1.55572160e+00]
+ [1.43107029e+00]
+ [1.55196391e+00]
+ [2.71136524e+00]
+ [5.55867740e-10]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -13357,8 +13353,8 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[209.15762791 245.39889896 270.23834247 289.5482784  311.61185297
+ 329.62055319 344.95445637 313.4688413  277.94402504 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13478,8 +13474,8 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[209.15762791 245.39889896 270.23834247 289.5482784  311.61185297
+ 329.62055319 344.95445637 313.4688413  277.94402504 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13668,8 +13664,8 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-209.15762791 -245.39889896 -270.23834247 -289.5482784  -311.61185297
+ -329.62055319 -344.95445637 -313.4688413  -277.94402504 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -13718,18 +13714,18 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[[ 2.04920063e+08]
- [ 1.84347113e+08]
- [ 1.63542118e+08]
- [ 2.29111076e+08]
- [ 1.75156159e+08]
- [ 1.20710926e+08]
- [ 9.65139896e+07]
- [ 7.44914326e+07]
- [ 4.01623812e+07]
- [ 6.49107508e+06]
- [-3.53359913e+06]
- [ 3.67633485e+07]]</t>
+          <t>[[ 2.61494230e+08]
+ [ 2.34941524e+08]
+ [ 2.08057832e+08]
+ [ 2.35596800e+08]
+ [ 1.79835328e+08]
+ [ 1.23626251e+08]
+ [ 1.01181418e+08]
+ [ 8.27588975e+07]
+ [ 4.81774345e+07]
+ [ 8.53877412e+06]
+ [-4.41354203e+06]
+ [ 4.58024213e+07]]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13752,18 +13748,18 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[[ 7847255.86458039]
- [ 7850247.3395711 ]
- [ 7852942.98497599]
- [13616237.83513025]
- [13623200.05293355]
- [13628602.20112174]
- [14378553.63140666]
- [16169268.34089626]
- [18435858.23539041]
- [19800770.47116342]
- [19800877.74007011]
- [19800744.41302841]]</t>
+          <t>[[10777855.05012654]
+ [10781336.82753931]
+ [10784474.57386732]
+ [15096112.26026435]
+ [15102662.33977505]
+ [15107744.09182997]
+ [16165497.73334574]
+ [18802338.58537759]
+ [22398670.80115771]
+ [24720211.20005808]
+ [24720346.57071425]
+ [24720180.75904774]]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13786,18 +13782,18 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>[[-3415.3154719 ]
- [-3841.92874418]
- [-4152.80476618]
- [-7746.63641764]
- [-8244.89127039]
- [-8661.82952753]
- [-8583.41336499]
- [-8009.92605495]
- [-7392.61483222]
- [-7113.06770454]
- [-7197.70642314]
- [-7279.30418072]]</t>
+          <t>[[ -5835.92151475]
+ [ -6564.89709392]
+ [ -7096.10660595]
+ [-10651.60272899]
+ [-11336.7017143 ]
+ [-11909.9906152 ]
+ [-11663.52210562]
+ [-10588.37694601]
+ [ -9441.57070844]
+ [ -8898.77507806]
+ [ -9004.66201054]
+ [ -9106.74456082]]</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -13850,18 +13846,18 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
-          <t>[[0.92863874]
- [0.83584253]
- [0.74205734]
- [1.04147212]
- [0.79918332]
- [0.55618108]
- [0.45072479]
- [0.35986641]
- [0.23202102]
- [0.15783343]
- [0.15589742]
- [0.22735041]]</t>
+          <t>[[1.18543102]
+ [1.06570949]
+ [0.94458311]
+ [1.07187194]
+ [0.82175136]
+ [0.57141714]
+ [0.47473587]
+ [0.40216784]
+ [0.27971339]
+ [0.19742212]
+ [0.19463061]
+ [0.28352209]]</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
@@ -13880,18 +13876,18 @@
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[[0.13747941]
- [0.13322384]
- [0.12903587]
- [0.41110951]
- [0.40208523]
- [0.39307942]
- [0.3352656 ]
- [0.34438934]
- [0.35786594]
- [0.32576837]
- [0.32311928]
- [0.32048188]]</t>
+          <t>[[0.29548066]
+ [0.28912807]
+ [0.28279033]
+ [0.63569175]
+ [0.62284045]
+ [0.60996333]
+ [0.51653329]
+ [0.53240837]
+ [0.55783951]
+ [0.50487243]
+ [0.50154858]
+ [0.49822938]]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13910,18 +13906,18 @@
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[[2.45997347]
- [2.21013098]
- [1.96088806]
- [2.93419509]
- [2.30032647]
- [1.67269783]
- [1.45558662]
- [1.31455463]
- [1.00881735]
- [0.64958501]
- [0.50719676]
- [0.98037613]]</t>
+          <t>[[4.33990632]
+ [3.90608782]
+ [3.47190606]
+ [4.12046258]
+ [3.23367882]
+ [2.35354899]
+ [2.09738042]
+ [2.03247426]
+ [1.74213867]
+ [1.14892626]
+ [0.86213827]
+ [1.82909199]]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13944,7 +13940,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[0.16164242]</t>
+          <t>[0.15915395]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13967,7 +13963,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[0.16269163]</t>
+          <t>[0.16020651]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13990,7 +13986,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[0.16164242 0.16269163 0.68296855 0.93256175 1.05107312 2.44517132]</t>
+          <t>[0.15915395 0.16020651 0.6523493  0.87633364 0.99559538 2.45954773]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14009,12 +14005,12 @@
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[[ 1.03785356e+00 -1.63587061e-01  1.04591119e+00 -1.54819323e+00
-   6.28015539e-01]
- [-5.98958921e+02  7.13712245e+02 -5.21347822e+02  5.19476872e+02
-  -1.12551394e+02]
- [-9.15585119e+01  1.40052030e+02 -4.74294293e+00 -2.05517489e+01
-  -2.21988260e+01]]</t>
+          <t>[[ 1.16114101e+00  2.28910740e-03 -2.04978434e-01 -3.57339978e-02
+   7.72823150e-02]
+ [ 2.24383841e+02 -3.06346771e+02  2.25009124e+02 -1.13392249e+02
+  -2.86539440e+01]
+ [-1.04962639e+02  2.18120267e+02 -1.93296253e+02  1.72905743e+02
+  -9.17671173e+01]]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -14033,9 +14029,12 @@
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>[[   1.03148662   -0.15744662    1.04202261   -1.54592261    0.62986   ]
- [  92.67511779 -105.54925114   77.70884194  -74.29243903   10.45773044]
- [ -84.96149946  129.75030005  -13.55111215   -4.4963654   -25.74132304]]</t>
+          <t>[[ 1.15381870e+00  9.74080584e-03 -2.06329166e-01 -4.08283281e-02
+   8.35979874e-02]
+ [ 6.06997022e+01 -7.75143235e+01  5.05276523e+01 -1.66412075e+01
+  -1.60718236e+01]
+ [-9.95443104e+01  2.05913255e+02 -1.87096938e+02  1.70222926e+02
+  -8.84949318e+01]]</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -14054,7 +14053,7 @@
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
-          <t>[[  5.72102445 -16.94230834  26.57754224 -20.56884078   6.21258243]
+          <t>[[  7.23731971 -24.19528324  39.37410221 -30.58771959   9.1715809 ]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -14079,7 +14078,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[0.16269163 1.05107312 2.52144628]</t>
+          <t>[0.16020651 0.99559538 2.52063355]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -14102,7 +14101,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[0.16164242 0.93256175 2.44517132]</t>
+          <t>[0.15915395 0.87633364 2.45954773]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -14125,7 +14124,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[4.55976127 0.         0.        ]</t>
+          <t>[4.19308883 0.         0.        ]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -14149,18 +14148,18 @@
       <c r="D529" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.02475893]
- [0.09427954]
- [0.20415527]
- [0.44832366]
- [0.79622936]
- [1.22478145]
- [1.51229472]
- [1.82018077]
- [2.14634682]
- [2.37100673]
- [2.59791593]
- [2.82352106]]</t>
+ [0.02899575]
+ [0.10999963]
+ [0.23788899]
+ [0.50829302]
+ [0.87616687]
+ [1.31981175]
+ [1.61495111]
+ [1.93089361]
+ [2.26732928]
+ [2.50031517]
+ [2.73612453]
+ [2.97031785]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -14183,7 +14182,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[2.82352106]</t>
+          <t>[2.97031785]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -14206,17 +14205,17 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[-16338875.74247312]
- [-15199196.96343794]
- [-14059260.05505751]
- [-13117956.67907293]
- [-12176317.89202567]
- [-11234399.61479938]
- [-10692773.7229141 ]
- [-10198366.9488287 ]
- [ -9751211.14539439]
- [ -9468851.22077094]
- [ -9186467.52414185]
+          <t>[[-14950841.93983752]
+ [-14140363.46704121]
+ [-13329605.55494078]
+ [-12500133.28291536]
+ [-11670298.67747148]
+ [-10840162.58833193]
+ [-10368399.54746523]
+ [ -9949461.94649021]
+ [ -9583397.55879915]
+ [ -9356975.49637408]
+ [ -9130529.66194339]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -14240,18 +14239,18 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[3788171.04295212]
- [3790166.1255112 ]
- [3791965.62587043]
- [3793362.28716378]
- [3796038.3629717 ]
- [3798120.31221607]
- [3794172.5314025 ]
- [3794012.98180679]
- [3793722.59677414]
- [3791408.18942941]
- [3791451.99170464]
- [3791427.11339156]]</t>
+          <t>[[3787986.2494587 ]
+ [3789634.88344365]
+ [3791122.17148771]
+ [3793209.43167373]
+ [3795426.14009632]
+ [3797150.95376902]
+ [3793420.50763096]
+ [3793107.18703039]
+ [3792687.85810046]
+ [3790677.28337482]
+ [3790721.38782834]
+ [3790696.68045183]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14274,18 +14273,18 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[22439.10418231]
- [22456.95848677]
- [22473.64372441]
- [22487.87522852]
- [22515.87200513]
- [22540.21978501]
- [22503.36298397]
- [22504.5072342 ]
- [22505.35643806]
- [22481.94941993]
- [22485.44306334]
- [22488.496556  ]]</t>
+          <t>[[22437.48546758]
+ [22452.24078606]
+ [22466.03208205]
+ [22486.28044533]
+ [22509.47246684]
+ [22529.64519938]
+ [22494.88963045]
+ [22494.13739405]
+ [22493.36102203]
+ [22473.40106259]
+ [22476.90148809]
+ [22479.95913015]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14308,18 +14307,18 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[-4505950.27903549]
- [-4209101.72476387]
- [-3907266.95222108]
- [-3465768.07958003]
- [-3012128.38406668]
- [-2550155.48444946]
- [-2270744.97491878]
- [-1989388.21408131]
- [-1705670.84132246]
- [-1515335.98048027]
- [-1324062.48550469]
- [-1132156.51751559]]</t>
+          <t>[[-4511045.87380649]
+ [-4213541.30621938]
+ [-3910469.43293521]
+ [-3467482.60176382]
+ [-3013791.63069519]
+ [-2552674.95356513]
+ [-2273920.76714761]
+ [-1993062.99062848]
+ [-1709231.12440164]
+ [-1518218.39524329]
+ [-1325740.71921184]
+ [-1132156.51854328]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14342,18 +14341,18 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>[[ 5.03502626e+08]
- [ 4.53942609e+08]
- [ 4.03848478e+08]
- [ 3.31241375e+08]
- [ 2.57499782e+08]
- [ 1.83103853e+08]
- [ 1.38365525e+08]
- [ 9.35672394e+07]
- [ 4.87347324e+07]
- [ 1.88730950e+07]
- [-1.09461851e+07]
- [-4.06893978e+07]]</t>
+          <t>[[ 5.04021029e+08]
+ [ 4.54385863e+08]
+ [ 4.04153395e+08]
+ [ 3.31374294e+08]
+ [ 2.57598194e+08]
+ [ 1.83243133e+08]
+ [ 1.38535866e+08]
+ [ 9.37539426e+07]
+ [ 4.89004720e+07]
+ [ 1.89967601e+07]
+ [-1.08804040e+07]
+ [-4.06893977e+07]]</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -14376,18 +14375,18 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[[9738395.19029326]
- [9738274.78932476]
- [9738154.35347586]
- [9739124.80914926]
- [9738952.27334915]
- [9738779.68218638]
- [9738696.8621703 ]
- [9738788.74933498]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304613]]</t>
+          <t>[[9738893.70120589]
+ [9738773.13121702]
+ [9738652.50667541]
+ [9739324.25048188]
+ [9739151.47286442]
+ [9738978.62590768]
+ [9738932.21925378]
+ [9739116.24816308]
+ [9739368.41784824]
+ [9739476.09501583]
+ [9739406.90494467]
+ [9739337.70859248]]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
@@ -14410,9 +14409,9 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[  3787067.1877171 ]
- [    22429.54651138]
- [-17478196.27298349]]</t>
+          <t>[[  3787067.18771867]
+ [    22429.54651139]
+ [-15760933.80852036]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14435,8 +14434,8 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[-4.79647751e+06]
- [ 5.52357095e+08]
+          <t>[[-4.80177715e+06]
+ [ 5.52900142e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -14460,7 +14459,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1821746.09322548]</t>
+          <t>[1646295.18193519]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14483,7 +14482,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[-3.83293457e+00 -5.18511801e-02  1.16940763e+02]</t>
+          <t>[-4.24142259e+00 -5.73771252e-02  1.23882336e+02]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14506,7 +14505,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[3.05374604e+10 3.04317239e+10 2.65878781e+08 8.52611923e+02
+          <t>[2.97253615e+10 2.96196250e+10 2.65186484e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -14526,7 +14525,8 @@
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[128.4315157 128.4315157 128.4315157 128.4315157 128.4315157 128.4315157]</t>
+          <t>[117.23308796 117.23308796 117.23308796 117.23308796 117.23308796
+ 117.23308796]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14665,10 +14665,9 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[4.49510305 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305
- 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305
- 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305 4.49510305
- 4.49510305]</t>
+          <t>[4.3962408 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408
+ 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408
+ 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14714,7 +14713,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[5395.70382728]</t>
+          <t>[5160.97485407]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14737,7 +14736,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>[54234853.62042493]</t>
+          <t>[51875478.10421066]</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -14779,7 +14778,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>[63.47886856]</t>
+          <t>[60.71735122]</t>
         </is>
       </c>
       <c r="E554" t="inlineStr"/>
@@ -14802,7 +14801,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[320.66273364]</t>
+          <t>[293.37004715]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14825,7 +14824,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[320.66273364]</t>
+          <t>[293.37004715]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14848,8 +14847,8 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[5.53059642e+06 5.53059642e+06 1.24131373e+05 3.33004810e+09
- 3.33004810e+09 0.00000000e+00]</t>
+          <t>[5.28999923e+06 5.28999923e+06 1.16119998e+05 3.18518122e+09
+ 3.18518122e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14921,9 +14920,9 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
- 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
- 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
@@ -15177,8 +15176,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[16371.97911    16371.97910999 16371.97910999 16371.97910999
- 16371.97910998 16371.97910992]</t>
+          <t>[17142.75252632 17142.75252632 17142.75252632 17142.75252632
+ 17142.75252632 17142.75252632]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15205,8 +15204,8 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>[162849.98232742 162849.98232728 162849.98232714 162849.98232699
- 162849.98232684 162849.98232517]</t>
+          <t>[162856.38555042 162856.38555042 162856.38555042 162856.38555042
+ 162856.38555042 162856.38555042]</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15233,8 +15232,8 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[162849.98232742 162849.98232728 162849.98232714 162849.98232699
- 162849.98232684 162849.98232517]</t>
+          <t>[162856.38555042 162856.38555042 162856.38555042 162856.38555042
+ 162856.38555042 162856.38555042]</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15261,8 +15260,8 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[3.90246782e+12 3.90246782e+12 3.90246782e+12 3.90246782e+12
- 3.90246782e+12 3.90246782e+12]</t>
+          <t>[3.90262127e+12 3.90262127e+12 3.90262127e+12 3.90262127e+12
+ 3.90262127e+12 3.90262127e+12]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15289,8 +15288,8 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>[3.90246782e+12 3.90246782e+12 3.90246782e+12 3.90246782e+12
- 3.90246782e+12 3.90246782e+12]</t>
+          <t>[3.90262127e+12 3.90262127e+12 3.90262127e+12 3.90262127e+12
+ 3.90262127e+12 3.90262127e+12]</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15317,8 +15316,8 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>[3.09465699e+12 3.09465699e+12 3.09465699e+12 3.09465699e+12
- 3.09465699e+12 3.09465698e+12]</t>
+          <t>[3.09477867e+12 3.09477867e+12 3.09477867e+12 3.09477867e+12
+ 3.09477867e+12 3.09477867e+12]</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15345,8 +15344,8 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>[3.92331155e+11 3.92331155e+11 3.92331155e+11 3.92331155e+11
- 3.92331155e+11 3.92331155e+11]</t>
+          <t>[4.10801642e+11 4.10801642e+11 4.10801642e+11 4.10801642e+11
+ 4.10801642e+11 4.10801642e+11]</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15454,12 +15453,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
- [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
- [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
- [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
- [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]
- [0.         0.         0.50977343 0.23037233 0.23037233 0.        ]]</t>
+          <t>[[0.         0.         0.48685297 0.22529682 0.22529682 0.        ]
+ [0.         0.         0.48685297 0.22529682 0.22529682 0.        ]
+ [0.         0.         0.48685297 0.22529682 0.22529682 0.        ]
+ [0.         0.         0.48685297 0.22529682 0.22529682 0.        ]
+ [0.         0.         0.48685297 0.22529682 0.22529682 0.        ]
+ [0.         0.         0.48685297 0.22529682 0.22529682 0.        ]]</t>
         </is>
       </c>
       <c r="E581" t="inlineStr"/>
@@ -15482,12 +15481,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[[0.83660474 0.83660474 0.         0.         0.         0.11518617]
- [0.83660474 0.83660474 0.         0.         0.         0.11518617]
- [0.83660474 0.83660474 0.         0.         0.         0.11518617]
- [0.83660474 0.83660474 0.         0.         0.         0.11518617]
- [0.83660474 0.83660474 0.         0.         0.         0.11518617]
- [0.83660474 0.83660474 0.         0.         0.         0.11518617]]</t>
+          <t>[[0.79871039 0.79871039 0.         0.         0.         0.11264841]
+ [0.79871039 0.79871039 0.         0.         0.         0.11264841]
+ [0.79871039 0.79871039 0.         0.         0.         0.11264841]
+ [0.79871039 0.79871039 0.         0.         0.         0.11264841]
+ [0.79871039 0.79871039 0.         0.         0.         0.11264841]
+ [0.79871039 0.79871039 0.         0.         0.         0.11264841]]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15510,7 +15509,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[1051.65230214]</t>
+          <t>[1067.46175593]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15533,7 +15532,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[4025651.55909389]</t>
+          <t>[4186385.64604659]</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15556,7 +15555,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[1637197.91099903]</t>
+          <t>[1714275.2526316]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15602,7 +15601,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[5.47361137e+09 5.47361137e+09 3.25699965e+07 0.00000000e+00
+          <t>[5.73053648e+09 5.73053648e+09 3.25712771e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -15626,9 +15625,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
- 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061
- 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15651,8 +15650,8 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
- 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
+          <t>[0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025
+ 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15700,7 +15699,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>[1737197.91099903]</t>
+          <t>[1814275.2526316]</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -15708,7 +15707,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>fixedse.monopile_cost</t>
+          <t>fixedse.mono.grav_foundation_mass</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -15718,12 +15717,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>[4525651.55909389]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
@@ -15731,7 +15730,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>fixedse.monopile_z_cg</t>
+          <t>fixedse.monopile_cost</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -15741,12 +15740,12 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[52.87819826]</t>
+          <t>[4686385.64604659]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr"/>
@@ -15754,7 +15753,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>fixedse.monopile_I_base</t>
+          <t>fixedse.monopile_z_cg</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -15764,13 +15763,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[6.47462167e+09 6.47462167e+09 3.45905916e+07 0.00000000e+00
- 0.00000000e+00 0.00000000e+00]</t>
+          <t>[52.7559214]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15778,7 +15776,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>fixedse.structural_mass</t>
+          <t>fixedse.monopile_I_base</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -15788,12 +15786,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[2607609.52080488]</t>
+          <t>[6.73150283e+09 6.73150283e+09 3.45039704e+07 0.00000000e+00
+ 0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
@@ -15801,7 +15800,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>fixedse.structural_cost</t>
+          <t>fixedse.structural_mass</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -15811,12 +15810,12 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[6932968.20931907]</t>
+          <t>[2509235.95114715]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr"/>
@@ -15824,7 +15823,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>fixedse.z_start</t>
+          <t>fixedse.structural_cost</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -15834,12 +15833,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[-85.]</t>
+          <t>[6744785.43924377]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
@@ -15847,7 +15846,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>fixedse.constr_diam_consistency</t>
+          <t>fixedse.z_start</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -15855,10 +15854,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[0.88985724]</t>
+          <t>[-85.]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
@@ -15866,7 +15869,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>fixedse.soil.z_k</t>
+          <t>fixedse.constr_diam_consistency</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -15874,14 +15877,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+      <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15889,7 +15888,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>fixedse.soil.k</t>
+          <t>fixedse.soil.z_k</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -15904,26 +15903,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[[3.11914834e+10 1.86078671e+13 3.11914834e+10 1.86078671e+13
-  1.93154295e+10 6.78181160e+10]
- [2.80790624e+10 1.31617169e+13 2.80790624e+10 1.31617169e+13
-  1.76354295e+10 6.78181160e+10]
- [2.49666413e+10 8.91023330e+12 2.49666413e+10 8.91023330e+12
-  1.59554295e+10 6.78181160e+10]
- [2.18542203e+10 5.70408308e+12 2.18542203e+10 5.70408308e+12
-  1.42754295e+10 6.78181160e+10]
- [1.87417992e+10 3.39393286e+12 1.87417992e+10 3.39393286e+12
-  1.25954295e+10 6.78181160e+10]
- [1.56293782e+10 1.83044931e+12 1.56293782e+10 1.83044931e+12
-  1.09154295e+10 6.78181160e+10]
- [1.25169571e+10 8.64299090e+11 1.25169571e+10 8.64299090e+11
-  9.23542951e+09 6.78181160e+10]
- [9.40453605e+09 3.46148870e+11 9.40453605e+09 3.46148870e+11
-  7.55542951e+09 6.78181160e+10]
- [6.29211500e+09 1.26665317e+11 6.29211500e+09 1.26665317e+11
-  5.87542951e+09 6.78181160e+10]
- [3.17969395e+09 5.65150966e+10 3.17969395e+09 5.65150966e+10
-  4.19542951e+09 6.78181160e+10]]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15931,7 +15911,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>towerse.constr_d_to_t</t>
+          <t>fixedse.soil.k</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -15939,10 +15919,33 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[184.0945639 320.        280.        240.       ]</t>
+          <t>[[3.11215514e+10 1.85864986e+13 3.11215514e+10 1.85864986e+13
+  1.92231581e+10 6.34411695e+10]
+ [2.80091303e+10 1.31423174e+13 2.80091303e+10 1.31423174e+13
+  1.75431581e+10 6.34411695e+10]
+ [2.48967093e+10 8.89280284e+12 2.48967093e+10 8.89280284e+12
+  1.58631581e+10 6.34411695e+10]
+ [2.17842882e+10 5.68862162e+12 2.17842882e+10 5.68862162e+12
+  1.41831581e+10 6.34411695e+10]
+ [1.86718672e+10 3.38044040e+12 1.86718672e+10 3.38044040e+12
+  1.25031581e+10 6.34411695e+10]
+ [1.55594461e+10 1.81892585e+12 1.55594461e+10 1.81892585e+12
+  1.08231581e+10 6.34411695e+10]
+ [1.24470251e+10 8.54744632e+11 1.24470251e+10 8.54744632e+11
+  9.14315808e+09 6.34411695e+10]
+ [9.33460402e+09 3.38563413e+11 9.33460402e+09 3.38563413e+11
+  7.46315808e+09 6.34411695e+10]
+ [6.22218296e+09 1.21048860e+11 6.22218296e+09 1.21048860e+11
+  5.78315808e+09 6.34411695e+10]
+ [3.10976191e+09 5.28676413e+10 3.10976191e+09 5.28676413e+10
+  4.10315808e+09 6.34411695e+10]]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15950,7 +15953,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>towerse.constr_taper</t>
+          <t>towerse.constr_d_to_t</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -15961,7 +15964,7 @@
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[313.8629005  439.62407984 369.81203992 300.        ]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15969,7 +15972,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>towerse.slope</t>
+          <t>towerse.constr_taper</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -15980,7 +15983,7 @@
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[1.        1.        0.6824012 1.       ]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15988,7 +15991,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>towerse.thickness_slope</t>
+          <t>towerse.slope</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -15999,7 +16002,7 @@
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[0.57529551 1.         1.        ]</t>
+          <t>[1.        1.        0.6824012 1.       ]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -16007,7 +16010,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>towerse.member.ca_usr_grid_full</t>
+          <t>towerse.thickness_slope</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -16018,7 +16021,7 @@
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.71393473 1.         1.        ]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -16026,7 +16029,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>towerse.member.cd_usr_grid_full</t>
+          <t>towerse.member.ca_usr_grid_full</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -16045,7 +16048,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>towerse.member.nu_full</t>
+          <t>towerse.member.cd_usr_grid_full</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -16056,41 +16059,35 @@
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>towerse.member.nu_full</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
           <t>[0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405
  0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405]</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>towerse.member.nodes_r</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>[4.         4.         4.         4.         4.         4.
- 4.         3.66666667 3.33333333 3.         3.         3.
- 3.        ]</t>
-        </is>
-      </c>
       <c r="E608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>towerse.member.center_of_buoyancy</t>
+          <t>towerse.member.nodes_r</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16105,7 +16102,8 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0. 0. 0.]</t>
+          <t>[4.3962408 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408 4.3962408
+ 3.9308272 3.4654136 3.        3.        3.        3.       ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16113,7 +16111,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>towerse.member.displacement</t>
+          <t>towerse.member.center_of_buoyancy</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16123,12 +16121,12 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>m**3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16136,7 +16134,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>towerse.member.buoyancy_force</t>
+          <t>towerse.member.displacement</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16146,7 +16144,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m**3</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16159,7 +16157,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>towerse.member.idx_cb</t>
+          <t>towerse.member.buoyancy_force</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16167,7 +16165,11 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D612" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16178,7 +16180,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>towerse.member.Awater</t>
+          <t>towerse.member.idx_cb</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16186,11 +16188,7 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
+      <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16201,7 +16199,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>towerse.member.Iwaterx</t>
+          <t>towerse.member.Awater</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -16211,7 +16209,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>m**4</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -16224,7 +16222,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>towerse.member.Iwatery</t>
+          <t>towerse.member.Iwaterx</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -16247,7 +16245,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>towerse.member.added_mass</t>
+          <t>towerse.member.Iwatery</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -16257,12 +16255,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m**4</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16270,7 +16268,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>towerse.member.waterline_centroid</t>
+          <t>towerse.member.added_mass</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -16280,12 +16278,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16293,57 +16291,55 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
+          <t>towerse.member.waterline_centroid</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>[0. 0.]</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
           <t>towerse.member.z_dim</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D619" t="inlineStr">
         <is>
           <t>[ 15.          27.78666667  40.57333333  53.36        71.62666667
   89.89333333 108.16       119.12       130.08       141.04
  148.34666667 155.65333333 162.96      ]</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>towerse.member.d_eff</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
-        </is>
-      </c>
       <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>towerse.tower_section_height</t>
+          <t>towerse.member.d_eff</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -16358,7 +16354,8 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[38.36 54.8  32.88 21.92]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816
+ 7.8616544 6.9308272 6.        6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16366,7 +16363,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>towerse.member.sigma_ult</t>
+          <t>towerse.tower_section_height</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -16376,12 +16373,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
+          <t>[38.36 54.8  32.88 21.92]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16389,7 +16386,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_exp</t>
+          <t>towerse.member.sigma_ult</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -16397,10 +16394,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3.]</t>
+          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16408,7 +16409,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_A</t>
+          <t>towerse.member.wohler_exp</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -16419,7 +16420,7 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
+          <t>[3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16427,7 +16428,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_density</t>
+          <t>towerse.member.wohler_A</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -16435,14 +16436,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16450,7 +16447,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_unit_cost</t>
+          <t>towerse.member.ballast_density</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -16460,7 +16457,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16473,7 +16470,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>towerse.z_param</t>
+          <t>towerse.member.ballast_unit_cost</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -16483,12 +16480,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16496,7 +16493,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>towerse.member.sec_loc</t>
+          <t>towerse.z_param</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -16504,22 +16501,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr"/>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.         0.39534884 0.76744186 1.        ]</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>normalized sectional location</t>
-        </is>
-      </c>
+          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>towerse.member.str_tw</t>
+          <t>towerse.member.sec_loc</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -16527,26 +16524,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
+      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>structural twist of section</t>
+          <t>normalized sectional location</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>towerse.member.tw_iner</t>
+          <t>towerse.member.str_tw</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -16566,14 +16559,14 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>inertial twist of section</t>
+          <t>structural twist of section</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>towerse.member.mass_den</t>
+          <t>towerse.member.tw_iner</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -16583,24 +16576,24 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>kg/m</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>[9065.70845322 5227.55912469 4572.06581752 3916.57251035]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>sectional mass per unit length</t>
+          <t>inertial twist of section</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_iner</t>
+          <t>towerse.member.mass_den</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -16610,24 +16603,24 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>kg*m</t>
+          <t>kg/m</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[71742.03005029 41559.91184742 27804.58963809 17478.31679189]</t>
+          <t>[6437.61927348 4600.2423792  3868.06118035 3135.87998151]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_iner</t>
+          <t>towerse.member.foreaft_iner</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -16642,19 +16635,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[71742.03005029 41559.91184742 27804.58963809 17478.31679189]</t>
+          <t>[61814.56838111 44252.51077771 26307.32633859 14017.69710534]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_stff</t>
+          <t>towerse.member.sideside_iner</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -16664,24 +16657,24 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N*m**2</t>
+          <t>kg*m</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[1.71919554e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
+          <t>[61814.56838111 44252.51077771 26307.32633859 14017.69710534]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_stff</t>
+          <t>towerse.member.foreaft_stff</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -16696,19 +16689,19 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[1.71919554e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
+          <t>[1.48129807e+12 1.06044838e+12 6.30417597e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>towerse.member.tor_stff</t>
+          <t>towerse.member.sideside_stff</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -16723,19 +16716,19 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[1.36332207e+12 7.89767795e+11 5.28373822e+11 3.32142469e+11]</t>
+          <t>[1.48129807e+12 1.06044838e+12 6.30417597e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>sectional torsional stiffness</t>
+          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>towerse.member.axial_stff</t>
+          <t>towerse.member.tor_stff</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -16745,24 +16738,24 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N*m**2</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[2.17246788e+11 1.25271007e+11 1.09563044e+11 9.38550805e+10]</t>
+          <t>[1.17466937e+12 8.40935563e+11 4.99921155e+11 2.66379914e+11]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>sectional axial stiffness</t>
+          <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>towerse.member.cg_offst</t>
+          <t>towerse.member.axial_stff</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -16772,24 +16765,24 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[1.54268375e+11 1.10238255e+11 9.26925756e+10 7.51468963e+10]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>offset from the sectional center of mass</t>
+          <t>sectional axial stiffness</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>towerse.member.sc_offst</t>
+          <t>towerse.member.cg_offst</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -16809,14 +16802,14 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>offset from the sectional shear center</t>
+          <t>offset from the sectional center of mass</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>towerse.member.tc_offst</t>
+          <t>towerse.member.sc_offst</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -16836,14 +16829,14 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>offset from the sectional tension center</t>
+          <t>offset from the sectional shear center</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>towerse.member.axial_load2stress</t>
+          <t>towerse.member.tc_offst</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -16853,23 +16846,24 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.920612   0.46533392 0.46533392 0.        ]
- [0.         0.         1.59653861 0.80327408 0.80327408 0.        ]
- [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
- [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr"/>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>towerse.member.shear_load2stress</t>
+          <t>towerse.member.axial_load2stress</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -16884,10 +16878,10 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[1.51249312 1.51249312 0.         0.         0.         0.23266696]
- [2.62573607 2.62573607 0.         0.         0.         0.40163704]
- [3.00158224 3.00158224 0.         0.         0.         0.52529097]
- [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
+          <t>[[0.         0.         1.296442   0.59356599 0.59356599 0.        ]
+ [0.         0.         1.81425223 0.82912868 0.82912868 0.        ]
+ [0.         0.         2.15767011 1.1732288  1.1732288  0.        ]
+ [0.         0.         2.6614539  1.78617071 1.78617071 0.        ]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16895,7 +16889,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>towerse.member.labor_hours</t>
+          <t>towerse.member.shear_load2stress</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -16905,12 +16899,15 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[532.69686483]</t>
+          <t>[[2.1321257  2.1321257  0.         0.         0.         0.296783  ]
+ [2.98493335 2.98493335 0.         0.         0.         0.41456434]
+ [3.54926712 3.54926712 0.         0.         0.         0.5866144 ]
+ [4.37673138 4.37673138 0.         0.         0.         0.89308536]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16918,7 +16915,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>towerse.tower_cost</t>
+          <t>towerse.member.labor_hours</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -16928,12 +16925,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[2407316.65022517]</t>
+          <t>[482.82953651]</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -16941,7 +16938,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>towerse.member.section_D</t>
+          <t>towerse.tower_cost</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -16951,13 +16948,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
+          <t>[2058399.79319718]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -16965,7 +16961,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>towerse.member.section_t</t>
+          <t>towerse.member.section_D</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -16980,8 +16976,8 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.04649784 0.04649784 0.04649784 0.02675    0.02675    0.02675
- 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.327068
+ 7.3962408 6.4654136 6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -16989,54 +16985,55 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
+          <t>towerse.member.section_t</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[0.02997473 0.02997473 0.02997473 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
           <t>towerse.member.section_sigma_y</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>[3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08
  3.45e+08 3.45e+08 3.45e+08 3.45e+08]</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>towerse.height_constraint</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
       <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>towerse.transition_piece_height</t>
+          <t>towerse.height_constraint</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -17051,7 +17048,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>[15.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E648" t="inlineStr"/>
@@ -17059,7 +17056,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>towerse.z_start</t>
+          <t>towerse.transition_piece_height</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -17082,7 +17079,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>airfoils.ac</t>
+          <t>towerse.z_start</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -17090,22 +17087,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>1D array of the aerodynamic centers of each airfoil.</t>
-        </is>
-      </c>
+          <t>[15.]</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>airfoils.r_thick</t>
+          <t>airfoils.ac</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -17116,32 +17113,55 @@
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>1D array of the relative thicknesses of each airfoil.</t>
+          <t>1D array of the aerodynamic centers of each airfoil.</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
+          <t>airfoils.r_thick</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>1D array of the relative thicknesses of each airfoil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
           <t>airfoils.aoa</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
         <is>
           <t>rad</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr">
+      <c r="D653" t="inlineStr">
         <is>
           <t>[-3.14159265 -3.08923278 -3.0368729  -2.98451302 -2.93215314 -2.87979327
  -2.82743339 -2.77507351 -2.72271363 -2.67035376 -2.61799388 -2.565634
@@ -17179,39 +17199,16 @@
   3.08923278  3.14159265]</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E653" t="inlineStr">
         <is>
           <t>1D array of the angles of attack used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>airfoils.Re</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>[1000000.]</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>airfoils.cl</t>
+          <t>airfoils.Re</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -17221,6 +17218,29 @@
       </c>
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
+        <is>
+          <t>[1000000.]</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>airfoils.cl</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
         <is>
           <t>[[[[ 1.27742998e-02]]
   [[ 1.42693272e-01]]
@@ -17267,25 +17287,25 @@
   [[ 1.53642952e-08]]]]</t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>4D array with the lift coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+    <row r="656">
+      <c r="A656" t="inlineStr">
         <is>
           <t>airfoils.cd</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
         <is>
           <t>[[[[0.06162547]]
   [[0.06296798]]
@@ -17332,25 +17352,25 @@
   [[0.0198    ]]]]</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="E656" t="inlineStr">
         <is>
           <t>4D array with the drag coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+    <row r="657">
+      <c r="A657" t="inlineStr">
         <is>
           <t>airfoils.cm</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
         <is>
           <t>[[[[ 3.70854259e-04]]
   [[ 5.78906867e-02]]
@@ -17397,25 +17417,25 @@
   [[ 7.70271560e-09]]]]</t>
         </is>
       </c>
-      <c r="E656" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>4D array with the moment coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+    <row r="658">
+      <c r="A658" t="inlineStr">
         <is>
           <t>airfoils.coord_xy</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
         <is>
           <t>[[[ 1.00000000e+00 -3.47000010e-03]
   [ 9.82059782e-01  4.47998271e-04]
@@ -17462,43 +17482,16 @@
   [ 1.00000000e+00  1.56966672e-03]]]</t>
         </is>
       </c>
-      <c r="E657" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>3D array of the x and y airfoil coordinates of the n_af airfoils.</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>airfoils.name</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>configuration.rated_power</t>
+          <t>airfoils.name</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -17508,24 +17501,24 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Unavailable</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[15000000.]</t>
+          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Electrical rated power of the generator.</t>
+          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>configuration.lifetime</t>
+          <t>configuration.rated_power</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -17535,24 +17528,24 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[15000000.]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Turbine design lifetime.</t>
+          <t>Electrical rated power of the generator.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>configuration.rotor_diameter_user</t>
+          <t>configuration.lifetime</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -17562,24 +17555,24 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[250.]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
+          <t>Turbine design lifetime.</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>configuration.hub_height_user</t>
+          <t>configuration.rotor_diameter_user</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -17594,19 +17587,19 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[162.96]</t>
+          <t>[250.]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
+          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>configuration.ws_class</t>
+          <t>configuration.hub_height_user</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17616,24 +17609,24 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>[162.96]</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
+          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>configuration.turb_class</t>
+          <t>configuration.ws_class</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17648,19 +17641,19 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
+          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>configuration.gearbox_type</t>
+          <t>configuration.turb_class</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17675,19 +17668,19 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
+          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>configuration.rotor_orientation</t>
+          <t>configuration.gearbox_type</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17702,19 +17695,19 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>upwind</t>
+          <t>direct_drive</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Rotor orientation, either upwind or downwind.</t>
+          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>configuration.upwind</t>
+          <t>configuration.rotor_orientation</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17727,19 +17720,21 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D667" t="b">
-        <v>1</v>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>upwind</t>
+        </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Convenient boolean for upwind (True) or downwind (False).</t>
+          <t>Rotor orientation, either upwind or downwind.</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>configuration.n_blades</t>
+          <t>configuration.upwind</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17752,19 +17747,19 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D668" t="n">
-        <v>3</v>
+      <c r="D668" t="b">
+        <v>1</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Number of blades of the rotor.</t>
+          <t>Convenient boolean for upwind (True) or downwind (False).</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>control.V_in</t>
+          <t>configuration.n_blades</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17774,24 +17769,22 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>m/s</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>[3.]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>3</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
+          <t>Number of blades of the rotor.</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>control.V_out</t>
+          <t>control.V_in</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17806,19 +17799,19 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
+          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>control.minOmega</t>
+          <t>control.V_out</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17828,24 +17821,24 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[0.52359878]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Minimum allowed rotor speed.</t>
+          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>control.maxOmega</t>
+          <t>control.minOmega</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17860,19 +17853,19 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>[0.79168135]</t>
+          <t>[0.52359878]</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Maximum allowed rotor speed.</t>
+          <t>Minimum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>control.max_TS</t>
+          <t>control.maxOmega</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17882,24 +17875,24 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[0.79168135]</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Maximum allowed blade tip speed.</t>
+          <t>Maximum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>control.max_pitch_rate</t>
+          <t>control.max_TS</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17909,24 +17902,24 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[0.03490659]</t>
+          <t>[95.]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Maximum allowed blade pitch rate</t>
+          <t>Maximum allowed blade tip speed.</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>control.max_torque_rate</t>
+          <t>control.max_pitch_rate</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17936,24 +17929,24 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N*m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[1500000.]</t>
+          <t>[0.03490659]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Maximum allowed generator torque rate</t>
+          <t>Maximum allowed blade pitch rate</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>control.rated_TSR</t>
+          <t>control.max_torque_rate</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17961,22 +17954,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>N*m/s</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[1500000.]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Constant tip speed ratio in region II.</t>
+          <t>Maximum allowed generator torque rate</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>control.rated_pitch</t>
+          <t>control.rated_TSR</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17984,26 +17981,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[9.]</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Constant pitch angle in region II.</t>
+          <t>Constant tip speed ratio in region II.</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>costs.offset_tcc_per_kW</t>
+          <t>control.rated_pitch</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -18013,7 +18006,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -18023,14 +18016,14 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Offset to turbine capital cost</t>
+          <t>Constant pitch angle in region II.</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>costs.bos_per_kW</t>
+          <t>costs.offset_tcc_per_kW</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -18045,19 +18038,19 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>[4053.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Balance of station/plant capital cost</t>
+          <t>Offset to turbine capital cost</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>costs.opex_per_kW</t>
+          <t>costs.bos_per_kW</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18067,24 +18060,24 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[137.]</t>
+          <t>[4053.]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Average annual operational expenditures of the turbine</t>
+          <t>Balance of station/plant capital cost</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>costs.wake_loss_factor</t>
+          <t>costs.opex_per_kW</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -18092,22 +18085,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>[0.15]</t>
+          <t>[137.]</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>The losses in AEP due to waked conditions</t>
+          <t>Average annual operational expenditures of the turbine</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>costs.fixed_charge_rate</t>
+          <t>costs.wake_loss_factor</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -18118,19 +18115,19 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[0.056]</t>
+          <t>[0.15]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Fixed charge rate for coe calculation</t>
+          <t>The losses in AEP due to waked conditions</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>costs.labor_rate</t>
+          <t>costs.fixed_charge_rate</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -18138,22 +18135,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>USD/h</t>
-        </is>
-      </c>
+      <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>[58.8]</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
+          <t>[0.056]</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Fixed charge rate for coe calculation</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>costs.painting_rate</t>
+          <t>costs.labor_rate</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -18163,12 +18160,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>USD/m**2</t>
+          <t>USD/h</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[58.8]</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -18176,7 +18173,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>costs.blade_mass_cost_coeff</t>
+          <t>costs.painting_rate</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -18186,12 +18183,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/m**2</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>[14.6]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
@@ -18199,7 +18196,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>costs.hub_mass_cost_coeff</t>
+          <t>costs.blade_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -18214,7 +18211,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>[3.9]</t>
+          <t>[14.6]</t>
         </is>
       </c>
       <c r="E686" t="inlineStr"/>
@@ -18222,7 +18219,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>costs.pitch_system_mass_cost_coeff</t>
+          <t>costs.hub_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -18237,7 +18234,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>[22.1]</t>
+          <t>[3.9]</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
@@ -18245,7 +18242,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>costs.spinner_mass_cost_coeff</t>
+          <t>costs.pitch_system_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -18260,7 +18257,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>[11.1]</t>
+          <t>[22.1]</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
@@ -18268,7 +18265,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>costs.lss_mass_cost_coeff</t>
+          <t>costs.spinner_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -18283,7 +18280,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[11.9]</t>
+          <t>[11.1]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18291,7 +18288,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>costs.bearing_mass_cost_coeff</t>
+          <t>costs.lss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -18306,7 +18303,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[4.5]</t>
+          <t>[11.9]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18314,7 +18311,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>costs.gearbox_torque_cost</t>
+          <t>costs.bearing_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -18324,12 +18321,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>USD/kN/m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[50.]</t>
+          <t>[4.5]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18337,7 +18334,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>costs.hss_mass_cost_coeff</t>
+          <t>costs.gearbox_torque_cost</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -18347,12 +18344,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kN/m</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[6.8]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -18360,7 +18357,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>costs.generator_mass_cost_coeff</t>
+          <t>costs.hss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -18375,7 +18372,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>[12.4]</t>
+          <t>[6.8]</t>
         </is>
       </c>
       <c r="E693" t="inlineStr"/>
@@ -18383,7 +18380,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>costs.bedplate_mass_cost_coeff</t>
+          <t>costs.generator_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -18398,7 +18395,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[12.4]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -18406,7 +18403,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>costs.yaw_mass_cost_coeff</t>
+          <t>costs.bedplate_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -18421,7 +18418,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[8.3]</t>
+          <t>[2.9]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -18429,7 +18426,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>costs.converter_mass_cost_coeff</t>
+          <t>costs.yaw_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -18444,7 +18441,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>[18.8]</t>
+          <t>[8.3]</t>
         </is>
       </c>
       <c r="E696" t="inlineStr"/>
@@ -18452,7 +18449,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>costs.transformer_mass_cost_coeff</t>
+          <t>costs.converter_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -18475,7 +18472,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>costs.hvac_mass_cost_coeff</t>
+          <t>costs.transformer_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -18490,7 +18487,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[124.]</t>
+          <t>[18.8]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18498,7 +18495,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>costs.cover_mass_cost_coeff</t>
+          <t>costs.hvac_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -18513,7 +18510,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>[5.7]</t>
+          <t>[124.]</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
@@ -18521,7 +18518,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>costs.elec_connec_machine_rating_cost_coeff</t>
+          <t>costs.cover_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -18531,12 +18528,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>[41.85]</t>
+          <t>[5.7]</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
@@ -18544,7 +18541,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>costs.platforms_mass_cost_coeff</t>
+          <t>costs.elec_connec_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -18554,12 +18551,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>[17.1]</t>
+          <t>[41.85]</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
@@ -18567,7 +18564,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>costs.tower_mass_cost_coeff</t>
+          <t>costs.platforms_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -18582,7 +18579,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>[2.77494833]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
@@ -18590,7 +18587,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>costs.controls_machine_rating_cost_coeff</t>
+          <t>costs.tower_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18600,12 +18597,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[21.15]</t>
+          <t>[2.76595638]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18613,7 +18610,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>costs.crane_cost</t>
+          <t>costs.controls_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18623,12 +18620,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[12000.]</t>
+          <t>[21.15]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18636,7 +18633,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>costs.electricity_price</t>
+          <t>costs.crane_cost</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18646,12 +18643,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>USD/kW/h</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[0.04]</t>
+          <t>[12000.]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18659,7 +18656,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>costs.reserve_margin_price</t>
+          <t>costs.electricity_price</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18669,12 +18666,12 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW/h</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[120.]</t>
+          <t>[0.04]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18682,7 +18679,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>costs.capacity_credit</t>
+          <t>costs.reserve_margin_price</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18690,10 +18687,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18701,7 +18702,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>costs.benchmark_price</t>
+          <t>costs.capacity_credit</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18709,14 +18710,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>USD/kW/h</t>
-        </is>
-      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[0.071]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18724,7 +18721,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>costs.turbine_number</t>
+          <t>costs.benchmark_price</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18734,22 +18731,20 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D709" t="n">
-        <v>40</v>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>Number of turbines at plant</t>
-        </is>
-      </c>
+          <t>USD/kW/h</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>[0.071]</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>env.rho_air</t>
+          <t>costs.turbine_number</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18759,24 +18754,22 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>[1.225]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>40</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Density of air</t>
+          <t>Number of turbines at plant</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>env.mu_air</t>
+          <t>env.rho_air</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18786,24 +18779,24 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>[1.81e-05]</t>
+          <t>[1.225]</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of air</t>
+          <t>Density of air</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>env.shear_exp</t>
+          <t>env.mu_air</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18811,22 +18804,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>kg/m/s</t>
+        </is>
+      </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[0.12]</t>
+          <t>[1.81e-05]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Shear exponent of the wind.</t>
+          <t>Dynamic viscosity of air</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>env.speed_sound_air</t>
+          <t>env.shear_exp</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18834,26 +18831,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>m/s</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[340.]</t>
+          <t>[0.12]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Speed of sound in air.</t>
+          <t>Shear exponent of the wind.</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>env.weibull_k</t>
+          <t>env.speed_sound_air</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18861,22 +18854,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[2.]</t>
+          <t>[340.]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Shape parameter of the Weibull probability density function of the wind.</t>
+          <t>Speed of sound in air.</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>env.rho_water</t>
+          <t>env.weibull_k</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18884,26 +18881,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>[1025.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Density of ocean water</t>
+          <t>Shape parameter of the Weibull probability density function of the wind.</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>env.mu_water</t>
+          <t>env.rho_water</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18913,24 +18906,24 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.0013351]</t>
+          <t>[1025.]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of ocean water</t>
+          <t>Density of ocean water</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>env.water_depth</t>
+          <t>env.mu_water</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18940,24 +18933,24 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg/m/s</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>[40.]</t>
+          <t>[0.0013351]</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
+          <t>Dynamic viscosity of ocean water</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>env.Hsig_wave</t>
+          <t>env.water_depth</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18972,19 +18965,19 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>[4.52]</t>
+          <t>[40.]</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Significant wave height</t>
+          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>env.Tsig_wave</t>
+          <t>env.Hsig_wave</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18994,24 +18987,24 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>[9.45]</t>
+          <t>[4.52]</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>Significant wave period</t>
+          <t>Significant wave height</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>env.G_soil</t>
+          <t>env.Tsig_wave</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -19021,24 +19014,24 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>N/m**2</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>[1.4e+08]</t>
+          <t>[9.45]</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Shear stress of soil</t>
+          <t>Significant wave period</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>env.nu_soil</t>
+          <t>env.G_soil</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -19046,35 +19039,62 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>N/m**2</t>
+        </is>
+      </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[0.4]</t>
+          <t>[1.4e+08]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Poisson ratio of soil</t>
+          <t>Shear stress of soil</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
+          <t>env.nu_soil</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>[0.4]</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Poisson ratio of soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
           <t>high_level_tower_props.tower_ref_axis</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
+      <c r="D723" t="inlineStr">
         <is>
           <t>[[  0.     0.    15.  ]
  [  0.     0.    53.36]
@@ -19083,132 +19103,132 @@
  [  0.     0.   162.96]]</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>high_level_tower_props.hub_height</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>[162.96]</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
+          <t>high_level_tower_props.hub_height</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>[162.96]</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
           <t>materials.ply_t</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D724" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.005      0.00515873
  0.001      0.001      0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>1D array of the ply thicknesses of the materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>materials.fvf</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.57       0.10769231
  0.57       0.57       0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber volume fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>materials.fwf</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.74506827 0.15889029
  0.74506827 0.74506827 0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="E727" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber weight- fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>materials.E</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D727" t="inlineStr">
+      <c r="D728" t="inlineStr">
         <is>
           <t>[[3.440e+09 3.440e+09 3.440e+09]
  [2.000e+11 2.000e+11 2.000e+11]
@@ -19223,29 +19243,29 @@
  [4.560e+06 4.560e+06 4.560e+06]]</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
+      <c r="E728" t="inlineStr">
         <is>
           <t>2D array of the Youngs moduli of the materials. Each row represents a material, the three columns represent E11, E22 and E33.</t>
         </is>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>materials.G</t>
         </is>
       </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D728" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>[[1.32300000e+09 1.32300000e+09 1.32300000e+09]
  [7.93000000e+10 7.93000000e+10 7.93000000e+10]
@@ -19260,25 +19280,25 @@
  [1.52000000e+06 1.52000000e+06 1.52000000e+06]]</t>
         </is>
       </c>
-      <c r="E728" t="inlineStr">
+      <c r="E729" t="inlineStr">
         <is>
           <t>2D array of the shear moduli of the materials. Each row represents a material, the three columns represent G12, G13 and G23.</t>
         </is>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
+    <row r="730">
+      <c r="A730" t="inlineStr">
         <is>
           <t>materials.nu</t>
         </is>
       </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
         <is>
           <t>[[0.3   0.3   0.3  ]
  [0.3   0.3   0.3  ]
@@ -19293,29 +19313,29 @@
  [0.49  0.49  0.49 ]]</t>
         </is>
       </c>
-      <c r="E729" t="inlineStr">
+      <c r="E730" t="inlineStr">
         <is>
           <t>2D array of the Poisson ratio of the materials. Each row represents a material, the three columns represent nu12, nu13 and nu23.</t>
         </is>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
+    <row r="731">
+      <c r="A731" t="inlineStr">
         <is>
           <t>materials.Xt</t>
         </is>
       </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr">
+      <c r="D731" t="inlineStr">
         <is>
           <t>[[7.400e+01 7.400e+01 7.400e+01]
  [4.500e+08 4.500e+08 4.500e+08]
@@ -19330,29 +19350,29 @@
  [6.900e+05 6.900e+05 6.900e+05]]</t>
         </is>
       </c>
-      <c r="E730" t="inlineStr">
+      <c r="E731" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Tensile Strength (UTS) of the materials. Each row represents a material, the three columns represent Xt12, Xt13 and Xt23.</t>
         </is>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
+    <row r="732">
+      <c r="A732" t="inlineStr">
         <is>
           <t>materials.Xc</t>
         </is>
       </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D731" t="inlineStr">
+      <c r="D732" t="inlineStr">
         <is>
           <t>[[8.7000e+01 8.7000e+01 8.7000e+01]
  [4.5000e+08 4.5000e+08 4.5000e+08]
@@ -19367,29 +19387,29 @@
  [4.0000e+05 4.0000e+05 4.0000e+05]]</t>
         </is>
       </c>
-      <c r="E731" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Compressive Strength (UCS) of the materials. Each row represents a material, the three columns represent Xc12, Xc13 and Xc23.</t>
         </is>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
+    <row r="733">
+      <c r="A733" t="inlineStr">
         <is>
           <t>materials.S</t>
         </is>
       </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D732" t="inlineStr">
+      <c r="D733" t="inlineStr">
         <is>
           <t>[[2.126e+07 2.126e+07 2.126e+07]
  [0.000e+00 0.000e+00 0.000e+00]
@@ -19404,67 +19424,44 @@
  [3.100e+05 3.100e+05 3.100e+05]]</t>
         </is>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="E733" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Shear Strength (USS) of the materials. Each row represents a material, the three columns represent S12, S13 and S23.</t>
         </is>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>materials.sigma_y</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr">
+      <c r="D734" t="inlineStr">
         <is>
           <t>[0.00e+00 3.45e+08 4.85e+08 2.65e+08 0.00e+00 0.00e+00 0.00e+00 0.00e+00
  0.00e+00 0.00e+00 0.00e+00]</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
+      <c r="E734" t="inlineStr">
         <is>
           <t>Yield stress of the material (in the principle direction for composites).</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>materials.wohler_exp</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>materials.wohler_intercept</t>
+          <t>materials.wohler_exp</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -19474,49 +19471,45 @@
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
+        <is>
+          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>materials.wohler_intercept</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
         <is>
           <t>[8.70000000e+01 3.55346484e+10 3.55346484e+10 3.55346484e+10
  6.09200000e+08 1.54600000e+09 1.13200000e+08 4.48900000e+08
  2.08300000e+06 0.00000000e+00 6.90000000e+05]</t>
         </is>
       </c>
-      <c r="E735" t="inlineStr">
+      <c r="E736" t="inlineStr">
         <is>
           <t>Stress-intercept (A) of S-N Wohler fatigue curve in the form of S = A*N^-(1/m), taken as ultimate stress unless otherwise specified.</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>materials.unit_cost</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>materials.waste</t>
+          <t>materials.unit_cost</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -19524,77 +19517,77 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
+          <t>materials.waste</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
           <t>materials.roll_mass</t>
         </is>
       </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
+      <c r="D739" t="inlineStr">
         <is>
           <t>[  0.       0.       0.       0.       0.       0.     181.4368 181.4368
    0.       0.       0.    ]</t>
         </is>
       </c>
-      <c r="E738" t="inlineStr">
+      <c r="E739" t="inlineStr">
         <is>
           <t>1D array of the roll mass of the composite fabrics. Non-composite materials are kept at 0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>materials.orth</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>monopile.s</t>
+          <t>materials.orth</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -19602,22 +19595,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C740" t="inlineStr"/>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>[0.   0.45 0.6  0.75 0.85 0.95 1.  ]</t>
+          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>monopile.height</t>
+          <t>monopile.s</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -19625,26 +19622,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[100.]</t>
+          <t>[0.   0.45 0.6  0.75 0.85 0.95 1.  ]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>monopile.length</t>
+          <t>monopile.height</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -19664,14 +19657,14 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>monopile.foundation_height</t>
+          <t>monopile.length</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19686,19 +19679,19 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[-85.]</t>
+          <t>[100.]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Foundation height in respect to the ground level.</t>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>monopile.diameter</t>
+          <t>monopile.foundation_height</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19713,19 +19706,19 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061 8.9902061]</t>
+          <t>[-85.]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
+          <t>Foundation height in respect to the ground level.</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>monopile.layer_thickness</t>
+          <t>monopile.diameter</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19740,19 +19733,19 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816 8.7924816]</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>monopile.outfitting_factor</t>
+          <t>monopile.layer_thickness</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19760,22 +19753,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr"/>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_mass</t>
+          <t>monopile.outfitting_factor</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19783,26 +19780,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[100000.]</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>point mass of transition piece</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_cost</t>
+          <t>monopile.transition_piece_mass</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19812,24 +19805,24 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[500000.]</t>
+          <t>[100000.]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>cost of transition piece</t>
+          <t>point mass of transition piece</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>monopile.gravity_foundation_mass</t>
+          <t>monopile.transition_piece_cost</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19839,24 +19832,24 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[500000.]</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>extra mass of gravity foundation</t>
+          <t>cost of transition piece</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>monopile.layer_name</t>
+          <t>monopile.gravity_foundation_mass</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19866,24 +19859,24 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>['monopile_wall']</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>extra mass of gravity foundation</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>monopile.layer_mat</t>
+          <t>monopile.layer_name</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19898,32 +19891,59 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['monopile_wall']</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
+          <t>monopile.layer_mat</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>['steel']</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
           <t>tower.ref_axis</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>[[  0.   0.  15.]
  [  0.   0.  50.]
@@ -19932,43 +19952,16 @@
  [  0.   0. 150.]]</t>
         </is>
       </c>
-      <c r="E752" t="inlineStr">
+      <c r="E753" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>tower.diameter</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>[8. 8. 8. 6. 6.]</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr">
-        <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>tower.cd</t>
+          <t>tower.diameter</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19976,22 +19969,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr"/>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[0.5 0.5 0.5 0.5 0.5]</t>
+          <t>[8.7924816 8.7924816 8.7924816 6.        6.       ]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>1D array of the drag coefficients defined along the tower height.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>tower.layer_thickness</t>
+          <t>tower.cd</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19999,26 +19996,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[[0.06191185 0.025      0.025      0.025      0.025     ]]</t>
+          <t>[0.5 0.5 0.5 0.5 0.5]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the drag coefficients defined along the tower height.</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>tower.outfitting_factor</t>
+          <t>tower.layer_thickness</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20026,22 +20019,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.03602753 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>tower.layer_name</t>
+          <t>tower.outfitting_factor</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -20049,26 +20046,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>['tower_wall']</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>tower.layer_mat</t>
+          <t>tower.layer_name</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -20083,19 +20076,19 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['tower_wall']</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>tower_grid.s</t>
+          <t>tower.layer_mat</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -20103,22 +20096,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
+          <t>['steel']</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>tower_grid.height</t>
+          <t>tower_grid.s</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -20126,26 +20123,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[147.96]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>tower_grid.length</t>
+          <t>tower_grid.height</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -20165,32 +20158,59 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
+          <t>tower_grid.length</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>[147.96]</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
           <t>tower_grid.foundation_height</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
+      <c r="D763" t="inlineStr">
         <is>
           <t>[15.]</t>
         </is>
       </c>
-      <c r="E762" t="inlineStr">
+      <c r="E763" t="inlineStr">
         <is>
           <t>Foundation height in respect to the ground level.</t>
         </is>
